--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9733" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10573" uniqueCount="435">
   <si>
     <t>jira</t>
   </si>
@@ -1355,6 +1355,15 @@
   </si>
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1371,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="287" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3187,8 +3196,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="487">
+  <fills count="529">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5944,8 +6105,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="463">
+  <borders count="503">
     <border>
       <left/>
       <right/>
@@ -10445,6 +10844,394 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10452,7 +11239,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="338">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11377,40 +12164,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="468" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="468" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="277" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="474" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="474" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="477" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="477" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="480" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="480" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="480" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="480" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="489" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="289" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="495" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="498" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="501" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="501" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="510" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="516" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="519" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="522" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="522" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="525" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="525" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11885,7 +12744,7 @@
         <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -12849,7 +13708,7 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="S52" t="s">
         <v>136</v>
@@ -12857,7 +13716,7 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="S53" t="s">
         <v>137</v>
@@ -12865,7 +13724,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="S54" t="s">
         <v>138</v>
@@ -12873,7 +13732,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="S55" t="s">
         <v>139</v>
@@ -12881,7 +13740,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S56" t="s">
         <v>140</v>
@@ -12889,7 +13748,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="S57" t="s">
         <v>141</v>
@@ -12897,7 +13756,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="S58" t="s">
         <v>219</v>
@@ -12905,7 +13764,7 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="S59" t="s">
         <v>407</v>
@@ -12913,7 +13772,7 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="S60" t="s">
         <v>142</v>
@@ -12921,7 +13780,7 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="S61" t="s">
         <v>143</v>
@@ -12929,7 +13788,7 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="S62" t="s">
         <v>144</v>
@@ -12937,7 +13796,7 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="S63" t="s">
         <v>145</v>
@@ -12945,7 +13804,7 @@
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="S64" t="s">
         <v>202</v>
@@ -12953,7 +13812,7 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="S65" t="s">
         <v>203</v>
@@ -12961,7 +13820,7 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="S66" t="s">
         <v>146</v>
@@ -12969,7 +13828,7 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="S67" t="s">
         <v>147</v>
@@ -12977,7 +13836,7 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="S68" t="s">
         <v>148</v>
@@ -12985,7 +13844,7 @@
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="S69" t="s">
         <v>149</v>
@@ -12993,7 +13852,7 @@
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="S70" t="s">
         <v>150</v>
@@ -13001,7 +13860,7 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
       <c r="S71" t="s">
         <v>204</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1416,6 +1416,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1426,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2064,8 +2067,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3002,8 +3099,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4733,6 +4983,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4740,7 +5272,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5098,49 +5630,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5495,7 +6072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6707,7 +7284,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60">
@@ -6715,7 +7292,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -6723,7 +7300,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62">
@@ -6731,7 +7308,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -6739,7 +7316,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>441</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -6747,7 +7324,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65">
@@ -6755,7 +7332,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -6763,7 +7340,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -6771,7 +7348,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -6779,7 +7356,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -6787,7 +7364,7 @@
         <v>421</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -6795,7 +7372,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -6803,7 +7380,7 @@
         <v>422</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -6811,7 +7388,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -6819,7 +7396,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -6827,7 +7404,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -6835,7 +7412,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -6843,7 +7420,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -6851,7 +7428,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -6859,7 +7436,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -6867,7 +7444,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -6875,7 +7452,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -6883,7 +7460,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82">
@@ -6891,7 +7468,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83">
@@ -6899,7 +7476,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -6907,7 +7484,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -6915,7 +7492,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -6923,7 +7500,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -6931,7 +7508,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -6939,7 +7516,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -6947,7 +7524,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -6955,7 +7532,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -6963,7 +7540,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -6971,101 +7548,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -20,16 +20,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,8 +43,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1419,6 +1419,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1450,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2161,8 +2185,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3252,8 +3370,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5265,6 +5536,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5272,7 +5825,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5675,49 +6228,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6072,7 +6670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6398,6 +6996,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>452</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -6491,7 +7092,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>458</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -6546,6 +7147,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>459</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -6596,6 +7200,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -6664,7 +7271,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="M10" t="s">
         <v>433</v>
@@ -6699,7 +7306,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -6731,7 +7338,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6759,6 +7366,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -6909,7 +7519,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -6926,7 +7536,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -6942,6 +7552,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -7172,7 +7785,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46">
@@ -7180,7 +7793,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -7188,7 +7801,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7196,7 +7809,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -7204,7 +7817,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -7212,7 +7825,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -7220,7 +7833,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -7228,7 +7841,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -7236,7 +7849,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -7244,7 +7857,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -7252,7 +7865,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -7260,7 +7873,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -7268,7 +7881,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -7276,7 +7889,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -7284,7 +7897,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -7292,7 +7905,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61">
@@ -7300,7 +7913,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -7308,7 +7921,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63">
@@ -7316,7 +7929,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64">
@@ -7324,7 +7937,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>441</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -7332,7 +7945,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -7340,7 +7953,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -7348,7 +7961,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -7356,7 +7969,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -7364,7 +7977,7 @@
         <v>421</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -7372,7 +7985,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -7380,7 +7993,7 @@
         <v>422</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -7388,7 +8001,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -7396,7 +8009,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -7404,7 +8017,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -7412,7 +8025,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -7420,7 +8033,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -7428,7 +8041,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -7436,7 +8049,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -7444,7 +8057,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -7452,7 +8065,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -7460,7 +8073,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -7468,7 +8081,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83">
@@ -7476,7 +8089,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84">
@@ -7484,7 +8097,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -7492,7 +8105,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -7500,7 +8113,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -7508,7 +8121,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -7516,7 +8129,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -7524,7 +8137,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -7532,7 +8145,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -7540,7 +8153,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -7548,106 +8161,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1450,7 +1450,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2279,8 +2279,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3523,8 +3617,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5818,6 +6065,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5825,7 +6354,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6273,49 +6802,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5011" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1450,7 +1450,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2373,8 +2373,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3770,8 +3864,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6347,6 +6594,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6354,7 +6883,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6847,49 +7376,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7701,7 +8275,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -7757,7 +8331,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -7807,7 +8381,7 @@
         <v>398</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -7845,7 +8419,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>454</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>433</v>
@@ -7880,7 +8454,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -7912,7 +8486,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -7941,7 +8515,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -7968,6 +8542,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5011" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="463">
   <si>
     <t>description</t>
   </si>
@@ -1443,6 +1443,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2467,8 +2476,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4017,8 +4308,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -6876,6 +7626,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6883,7 +8479,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7421,49 +9017,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8006,7 +9737,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8080,7 +9811,7 @@
         <v>395</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -8151,7 +9882,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -8213,7 +9944,7 @@
         <v>396</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8269,7 +10000,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -8325,7 +10056,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -8377,6 +10108,9 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>398</v>
       </c>
@@ -8414,6 +10148,9 @@
       </c>
       <c r="E10" t="s">
         <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,12 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7309" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1452,6 +1452,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1471,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2758,8 +2770,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4767,8 +4967,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -8472,6 +8978,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8479,7 +9549,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9152,49 +10222,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9657,7 +10817,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>464</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -9737,7 +10897,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>462</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9811,7 +10971,7 @@
         <v>395</v>
       </c>
       <c r="F4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -9882,7 +11042,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -9944,7 +11104,7 @@
         <v>396</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10000,7 +11160,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -10056,7 +11216,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10109,7 +11269,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>466</v>
       </c>
       <c r="I9" t="s">
         <v>398</v>
@@ -10150,7 +11310,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10187,6 +11347,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -10219,6 +11382,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -10248,6 +11414,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -10452,7 +11621,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>463</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -10466,7 +11635,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -10480,7 +11649,7 @@
         <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -10494,7 +11663,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>427</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -10505,7 +11674,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -10516,7 +11685,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -10527,7 +11696,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -10538,7 +11707,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -10549,7 +11718,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -10560,7 +11729,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -10571,7 +11740,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -10581,6 +11750,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7309" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8235" uniqueCount="469">
   <si>
     <t>description</t>
   </si>
@@ -1464,6 +1464,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1477,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="266" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2958,8 +2964,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5273,8 +5467,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -9542,6 +10042,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9549,7 +10613,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10312,49 +11376,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10709,7 +11863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12101,7 +13255,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78">
@@ -12109,7 +13263,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -12117,7 +13271,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -12125,7 +13279,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -12133,7 +13287,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -12141,7 +13295,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -12149,7 +13303,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84">
@@ -12157,7 +13311,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85">
@@ -12165,7 +13319,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -12173,7 +13327,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -12181,7 +13335,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -12189,7 +13343,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -12197,7 +13351,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -12205,7 +13359,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -12213,7 +13367,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -12221,116 +13375,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8235" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8699" uniqueCount="470">
   <si>
     <t>description</t>
   </si>
@@ -1470,6 +1470,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="266" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3152,8 +3155,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5773,8 +5870,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10606,6 +10856,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10613,7 +11145,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11466,49 +11998,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11863,7 +12440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13199,7 +13776,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71">
@@ -13207,7 +13784,7 @@
         <v>422</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -13215,7 +13792,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -13223,7 +13800,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -13231,7 +13808,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -13239,7 +13816,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -13247,7 +13824,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -13255,7 +13832,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -13263,7 +13840,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79">
@@ -13271,7 +13848,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -13279,7 +13856,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -13287,7 +13864,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -13295,7 +13872,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -13303,7 +13880,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -13311,7 +13888,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85">
@@ -13319,7 +13896,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86">
@@ -13327,7 +13904,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -13335,7 +13912,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -13343,7 +13920,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -13351,7 +13928,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -13359,7 +13936,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -13367,7 +13944,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -13375,121 +13952,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8699" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9164" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1473,6 +1473,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1483,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3249,8 +3252,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6023,8 +6120,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11138,6 +11388,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11145,7 +11677,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12043,49 +12575,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12773,7 +13350,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -12835,7 +13412,7 @@
         <v>396</v>
       </c>
       <c r="F6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -12891,7 +13468,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>461</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -12947,7 +13524,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -13000,7 +13577,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>466</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>398</v>
@@ -13041,7 +13618,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>466</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -13079,7 +13656,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -13114,7 +13691,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -13146,7 +13723,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -13176,6 +13753,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9164" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9630" uniqueCount="472">
   <si>
     <t>description</t>
   </si>
@@ -1476,6 +1476,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1486,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3346,8 +3349,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6273,8 +6370,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11670,6 +11920,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11677,7 +12209,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="338">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12620,49 +13152,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13758,7 +14335,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>471</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -13787,7 +14364,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -13813,7 +14390,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -13836,7 +14413,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -13853,7 +14430,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -13870,7 +14447,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -13887,7 +14464,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -13904,7 +14481,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -13921,7 +14498,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -13936,6 +14513,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9630" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10098" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1479,6 +1479,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="326" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3443,8 +3449,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6523,8 +6623,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12202,6 +12455,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12209,7 +12744,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="353">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13197,49 +13732,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13773,7 +14353,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -13847,7 +14427,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -13918,7 +14498,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
         <v>452</v>
@@ -13983,7 +14563,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>396</v>
@@ -14039,7 +14619,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -14095,7 +14675,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -14148,7 +14728,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -14189,7 +14769,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -14227,7 +14807,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -14262,7 +14842,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -14294,7 +14874,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -14326,7 +14906,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -14358,7 +14938,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -14384,7 +14964,7 @@
         <v>411</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -14407,7 +14987,7 @@
         <v>423</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -14424,7 +15004,7 @@
         <v>424</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>426</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -14441,7 +15021,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -14458,7 +15038,7 @@
         <v>407</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -14475,7 +15055,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -14492,7 +15072,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -14509,7 +15089,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>463</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -14526,7 +15106,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -14540,7 +15120,7 @@
         <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>463</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -14554,7 +15134,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>427</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -14565,7 +15145,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -14576,7 +15156,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -14587,7 +15167,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -14598,7 +15178,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -14609,7 +15189,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -14620,7 +15200,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -14631,7 +15211,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -14642,7 +15222,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -14652,6 +15232,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -14660,6 +15243,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10098" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10567" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1485,6 +1485,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1495,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="326" x14ac:knownFonts="1">
+  <fonts count="341" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3543,8 +3546,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6776,8 +6873,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12737,6 +12987,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12744,7 +13276,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="368">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13777,49 +14309,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14174,7 +14751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15386,7 +15963,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54">
@@ -15394,7 +15971,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -15402,7 +15979,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -15410,7 +15987,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -15418,7 +15995,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -15426,7 +16003,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -15434,7 +16011,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -15442,7 +16019,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -15450,7 +16027,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62">
@@ -15458,7 +16035,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -15466,7 +16043,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64">
@@ -15474,7 +16051,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65">
@@ -15482,7 +16059,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -15490,7 +16067,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -15498,7 +16075,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -15506,7 +16083,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -15514,7 +16091,7 @@
         <v>421</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -15522,7 +16099,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -15530,7 +16107,7 @@
         <v>422</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72">
@@ -15538,7 +16115,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -15546,7 +16123,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -15554,7 +16131,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -15562,7 +16139,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -15570,7 +16147,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -15578,7 +16155,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -15586,7 +16163,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -15594,7 +16171,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80">
@@ -15602,7 +16179,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -15610,7 +16187,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -15618,7 +16195,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -15626,7 +16203,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -15634,7 +16211,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -15642,7 +16219,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86">
@@ -15650,7 +16227,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87">
@@ -15658,7 +16235,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -15666,7 +16243,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -15674,7 +16251,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -15682,7 +16259,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -15690,7 +16267,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -15698,126 +16275,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10567" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1495,7 +1495,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="341" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3640,8 +3640,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7026,8 +7120,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13269,6 +13516,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13276,7 +13805,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="383">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14354,49 +14883,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,36 +19,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11511" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1488,6 +1489,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1511,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="356" x14ac:knownFonts="1">
+  <fonts count="372" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3734,8 +3750,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7273,8 +7390,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13798,6 +14068,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13805,7 +14357,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="399">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14928,49 +15480,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15325,7 +15925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15344,75 +15944,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>423</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>424</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>407</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>425</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15424,1556 +16027,1571 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>464</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>392</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>429</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>430</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>435</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>436</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>408</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>444</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
         <v>472</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>432</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>413</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>437</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>409</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>395</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>465</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>414</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>438</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>410</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>445</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>473</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>452</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>470</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>478</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>415</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>439</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>446</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>396</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>462</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>399</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>416</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>458</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>447</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>461</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>434</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>459</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>448</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>418</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>449</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>398</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>419</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>466</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>433</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>420</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>454</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>471</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>471</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>411</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>393</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" t="s">
         <v>394</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>424</v>
-      </c>
-      <c r="C18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" t="s">
         <v>426</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>400</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>407</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>400</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>453</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>453</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>425</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>463</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>427</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>421</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>422</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>428</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11511" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11987" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1504,6 +1504,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1517,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="372" x14ac:knownFonts="1">
+  <fonts count="388" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3851,8 +3857,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7543,8 +7650,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -14350,6 +14610,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14357,7 +14899,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="415">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15525,52 +16067,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="359" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="362" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15925,7 +16515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16027,7 +16617,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -17139,7 +17729,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52">
@@ -17147,7 +17737,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -17155,7 +17745,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -17163,7 +17753,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55">
@@ -17171,7 +17761,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -17179,7 +17769,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -17187,7 +17777,7 @@
         <v>304</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -17195,7 +17785,7 @@
         <v>313</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -17203,7 +17793,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -17211,7 +17801,7 @@
         <v>310</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -17219,7 +17809,7 @@
         <v>311</v>
       </c>
       <c r="V61" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -17227,7 +17817,7 @@
         <v>370</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63">
@@ -17235,7 +17825,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -17243,7 +17833,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65">
@@ -17251,7 +17841,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66">
@@ -17259,7 +17849,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -17267,7 +17857,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -17275,7 +17865,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -17283,7 +17873,7 @@
         <v>421</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -17291,7 +17881,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -17299,7 +17889,7 @@
         <v>422</v>
       </c>
       <c r="V71" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -17307,7 +17897,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73">
@@ -17315,7 +17905,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -17323,7 +17913,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -17331,7 +17921,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -17339,7 +17929,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -17347,7 +17937,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -17355,7 +17945,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -17363,7 +17953,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -17371,7 +17961,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81">
@@ -17379,7 +17969,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -17387,7 +17977,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -17395,7 +17985,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -17403,7 +17993,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -17411,7 +18001,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -17419,7 +18009,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87">
@@ -17427,7 +18017,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88">
@@ -17435,7 +18025,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -17443,7 +18033,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -17451,7 +18041,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -17459,7 +18049,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -17467,131 +18057,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11987" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13419" uniqueCount="485">
   <si>
     <t>description</t>
   </si>
@@ -1510,6 +1510,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1526,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="388" x14ac:knownFonts="1">
+  <fonts count="436" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3958,8 +3967,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7803,8 +8115,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -14892,6 +15663,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14899,7 +16516,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="415">
+  <cellXfs count="463">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16115,52 +17732,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="374" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="375" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="378" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="390" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="391" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="394" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="406" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="407" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="410" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16635,7 +18396,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>484</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -16718,7 +18479,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -16789,7 +18550,7 @@
         <v>465</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -16860,7 +18621,7 @@
         <v>470</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>478</v>
@@ -16920,6 +18681,9 @@
       </c>
       <c r="G6" t="s">
         <v>462</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13419" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14858" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1519,6 +1519,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1538,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="436" x14ac:knownFonts="1">
+  <fonts count="484" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4270,8 +4282,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8574,8 +8889,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="871">
     <border>
       <left/>
       <right/>
@@ -16509,6 +17283,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16516,7 +18136,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="463">
+  <cellXfs count="511">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17876,52 +19496,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="422" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="423" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="425" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="426" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="438" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="439" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="441" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="442" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="454" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="455" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="457" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="458" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18276,7 +20040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19144,7 +20908,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>488</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -19161,7 +20925,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -19178,7 +20942,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -19195,7 +20959,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -19212,7 +20976,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -19229,7 +20993,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -19245,6 +21009,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -19279,7 +21046,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -19290,7 +21057,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>487</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -19301,7 +21068,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -19312,7 +21079,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -19323,7 +21090,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -19334,7 +21101,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -19345,7 +21112,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -19356,7 +21123,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -19367,7 +21134,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -19377,6 +21144,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -19385,6 +21155,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -19669,7 +21442,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74">
@@ -19677,7 +21450,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -19685,7 +21458,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -19693,7 +21466,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -19701,7 +21474,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -19709,7 +21482,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -19717,7 +21490,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -19725,7 +21498,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -19733,7 +21506,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82">
@@ -19741,7 +21514,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -19749,7 +21522,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -19757,7 +21530,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -19765,7 +21538,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -19773,7 +21546,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -19781,7 +21554,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88">
@@ -19789,7 +21562,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89">
@@ -19797,7 +21570,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -19805,7 +21578,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -19813,7 +21586,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -19821,136 +21594,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14858" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15341" uniqueCount="491">
   <si>
     <t>description</t>
   </si>
@@ -1531,6 +1531,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1544,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="484" x14ac:knownFonts="1">
+  <fonts count="500" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4585,8 +4591,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9348,8 +9455,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="871">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -18129,6 +18389,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18136,7 +18678,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="511">
+  <cellXfs count="527">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19640,52 +20182,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="470" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="471" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="474" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20697,7 +21287,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -20732,7 +21322,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -20764,7 +21354,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>490</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -20796,7 +21386,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -20824,6 +21414,9 @@
       <c r="J15" t="s">
         <v>471</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -20849,6 +21442,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15341" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15827" uniqueCount="494">
   <si>
     <t>description</t>
   </si>
@@ -1537,6 +1537,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1553,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="500" x14ac:knownFonts="1">
+  <fonts count="516" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4692,8 +4701,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9608,8 +9718,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -18671,6 +18934,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18678,7 +19223,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="527">
+  <cellXfs count="543">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20230,52 +20775,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="486" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="487" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="489" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="490" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20630,7 +21223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21229,7 +21822,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10">
@@ -21267,7 +21860,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11">
@@ -21302,7 +21895,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -21336,6 +21929,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -21368,6 +21964,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -21958,7 +22557,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64">
@@ -21966,7 +22565,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -21974,7 +22573,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66">
@@ -21982,7 +22581,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67">
@@ -21990,7 +22589,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -21998,7 +22597,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -22006,7 +22605,7 @@
         <v>421</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -22014,7 +22613,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -22022,7 +22621,7 @@
         <v>422</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -22030,7 +22629,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -22038,7 +22637,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74">
@@ -22046,7 +22645,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75">
@@ -22054,7 +22653,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -22062,7 +22661,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -22070,7 +22669,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -22078,7 +22677,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -22086,7 +22685,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -22094,7 +22693,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -22102,7 +22701,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -22110,7 +22709,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83">
@@ -22118,7 +22717,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -22126,7 +22725,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -22134,7 +22733,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -22142,7 +22741,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -22150,7 +22749,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -22158,7 +22757,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89">
@@ -22166,7 +22765,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90">
@@ -22174,7 +22773,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -22182,7 +22781,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -22190,141 +22789,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -25,31 +25,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15827" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16321" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1546,6 +1547,33 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="516" x14ac:knownFonts="1">
+  <fonts count="532" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4802,8 +4830,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9871,8 +10000,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="927">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -19216,6 +19498,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19223,7 +19787,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="543">
+  <cellXfs count="559">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20823,52 +21387,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="502" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="503" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="506" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21223,7 +21835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21272,48 +21884,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>423</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>424</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>425</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -21355,48 +21970,51 @@
         <v>429</v>
       </c>
       <c r="M2" t="s">
+        <v>497</v>
+      </c>
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>431</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>412</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>435</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>436</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>444</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -21423,7 +22041,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>495</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -21437,43 +22055,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>498</v>
+      </c>
+      <c r="O3" t="s">
         <v>432</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>413</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>437</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -21496,6 +22117,9 @@
       <c r="G4" t="s">
         <v>465</v>
       </c>
+      <c r="H4" t="s">
+        <v>496</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -21508,43 +22132,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>499</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>414</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>438</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>445</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -21576,40 +22203,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>415</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>439</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>446</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -21638,37 +22265,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>399</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>416</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>458</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>447</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -21694,37 +22321,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>434</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>459</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>448</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -21750,34 +22377,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>418</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>449</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -21803,25 +22430,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>419</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>492</v>
       </c>
     </row>
@@ -21844,22 +22471,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>433</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>420</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>493</v>
       </c>
     </row>
@@ -21882,19 +22509,19 @@
       <c r="L11" t="s">
         <v>489</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -21917,25 +22544,25 @@
       <c r="L12" t="s">
         <v>454</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>494</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -21952,25 +22579,25 @@
       <c r="L13" t="s">
         <v>490</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -21987,22 +22614,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -22016,22 +22643,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>393</v>
@@ -22045,19 +22672,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>394</v>
@@ -22068,16 +22695,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
         <v>426</v>
@@ -22088,13 +22715,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -22105,13 +22732,13 @@
       <c r="J19" t="s">
         <v>488</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -22122,13 +22749,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -22139,13 +22766,13 @@
       <c r="J21" t="s">
         <v>400</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>407</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -22156,13 +22783,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -22173,13 +22800,13 @@
       <c r="J23" t="s">
         <v>453</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -22190,13 +22817,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>463</v>
@@ -22207,13 +22834,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -22221,13 +22848,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>425</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -22235,18 +22862,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>486</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -22257,7 +22887,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -22268,7 +22898,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -22279,7 +22909,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -22290,7 +22920,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -22301,7 +22931,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -22312,7 +22942,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -22323,7 +22953,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -22334,7 +22964,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -22345,7 +22975,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>440</v>
       </c>
     </row>
@@ -22356,7 +22986,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>401</v>
       </c>
     </row>
@@ -22364,7 +22994,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22372,7 +23002,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22380,7 +23010,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22388,7 +23018,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22396,7 +23026,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22404,7 +23034,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -22412,7 +23042,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>455</v>
       </c>
     </row>
@@ -22420,7 +23050,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -22428,7 +23058,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -22436,7 +23066,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -22444,7 +23074,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -22452,7 +23082,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -22460,475 +23090,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>481</v>
+      <c r="W51" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>474</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>451</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>491</v>
+      <c r="W63" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>397</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>456</v>
+      <c r="W66" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>421</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>422</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>469</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>485</v>
+      <c r="W74" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>428</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>468</v>
+      <c r="W82" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>442</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>450</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16321" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16815" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1581,7 +1581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="532" x14ac:knownFonts="1">
+  <fonts count="548" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4931,8 +4931,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10153,8 +10254,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="983">
     <border>
       <left/>
       <right/>
@@ -19780,6 +20034,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19787,7 +20323,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="559">
+  <cellXfs count="575">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21435,52 +21971,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="897" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="900" fontId="518" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="903" fontId="519" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="521" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="522" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,38 +19,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16815" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17820" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1574,6 +1575,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1612,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="548" x14ac:knownFonts="1">
+  <fonts count="580" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5032,8 +5063,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="1003">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10407,8 +10640,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="983">
+  <borders count="1039">
     <border>
       <left/>
       <right/>
@@ -20316,6 +20855,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20323,7 +21426,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="575">
+  <cellXfs count="607">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22019,52 +23122,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="534" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="535" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="537" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="538" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="951" fontId="548" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="549" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="954" fontId="550" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="957" fontId="551" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="553" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="554" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="966" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="978" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="981" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="984" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="987" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="990" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="993" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="996" borderId="1034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="999" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="999" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="1002" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22419,7 +23618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22441,78 +23640,81 @@
         <v>475</v>
       </c>
       <c r="D1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>494</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>411</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>423</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>424</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>407</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>425</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22527,79 +23729,82 @@
         <v>480</v>
       </c>
       <c r="D2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>464</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>484</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>392</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>429</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>497</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>430</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>431</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>412</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>435</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>436</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>444</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="3">
@@ -22613,1546 +23818,1573 @@
         <v>477</v>
       </c>
       <c r="D3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" t="s">
         <v>472</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>495</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>498</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>432</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>413</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>437</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>395</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>465</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>496</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>499</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>414</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>438</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>445</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" t="s">
         <v>473</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>452</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>470</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>478</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>415</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>439</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>446</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>396</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>462</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>399</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>416</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>458</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>447</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>461</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>434</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>459</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>448</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>418</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>449</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>419</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>492</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>466</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>398</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>433</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>420</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>493</v>
+      <c r="AC10" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>489</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>454</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>494</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>490</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>471</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>393</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>394</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>479</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>411</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>426</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>423</v>
-      </c>
-      <c r="D19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>488</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>424</v>
-      </c>
-      <c r="D20" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>400</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>407</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>407</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>453</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>463</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" t="s">
+        <v>486</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>486</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>487</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>427</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>421</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>422</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>428</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17820" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18329" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1605,6 +1605,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1624,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="580" x14ac:knownFonts="1">
+  <fonts count="596" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5265,8 +5277,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1003">
+  <fills count="1030">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10946,8 +11059,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1039">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -21419,6 +21685,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21426,7 +21974,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="607">
+  <cellXfs count="623">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23218,52 +23766,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="563" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="978" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="978" fontId="564" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="565" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="981" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="981" fontId="566" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="567" fillId="984" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="984" fontId="567" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="568" fillId="987" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="987" fontId="568" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="569" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="570" fillId="990" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="570" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="571" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="572" fillId="993" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="572" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="996" borderId="1034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="996" fontId="573" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="999" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="574" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="575" fillId="999" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="575" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="576" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="577" fillId="1002" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="577" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="578" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="578" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23618,7 +24214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24390,7 +24986,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14">
@@ -24425,7 +25021,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15">
@@ -24457,7 +25053,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16">
@@ -24486,7 +25082,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17">
@@ -24509,7 +25105,7 @@
         <v>479</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18">
@@ -24529,7 +25125,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19">
@@ -24548,6 +25144,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -24565,6 +25164,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -24582,6 +25184,9 @@
       <c r="X21" t="s">
         <v>500</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -25131,7 +25736,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80">
@@ -25139,7 +25744,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -25147,7 +25752,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -25155,7 +25760,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>502</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -25163,7 +25768,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84">
@@ -25171,7 +25776,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -25179,7 +25784,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86">
@@ -25187,7 +25792,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -25195,7 +25800,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -25203,7 +25808,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -25211,7 +25816,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -25219,7 +25824,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -25227,7 +25832,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92">
@@ -25235,156 +25840,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -34,7 +34,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18329" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19350" uniqueCount="520">
   <si>
     <t>description</t>
   </si>
@@ -1617,6 +1617,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1633,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="596" x14ac:knownFonts="1">
+  <fonts count="628" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5378,8 +5387,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1030">
+  <fills count="1084">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11212,8 +11423,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1067">
+  <borders count="1123">
     <border>
       <left/>
       <right/>
@@ -21967,6 +22484,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21974,7 +23055,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="623">
+  <cellXfs count="655">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23814,52 +24895,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="580" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1005" fontId="580" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="581" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="582" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1008" fontId="582" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="583" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1011" fontId="583" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="584" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1014" fontId="584" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="585" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="586" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="587" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="588" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1020" fontId="588" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1023" fontId="589" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="590" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="591" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="592" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="593" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="594" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1032" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1035" fontId="598" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1038" fontId="599" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1041" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="601" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="602" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1047" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1050" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1059" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1062" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1065" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1068" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1074" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1077" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24214,7 +25391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25041,7 +26218,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>517</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -25072,6 +26249,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>518</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -25099,7 +26279,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>519</v>
       </c>
       <c r="AA17" t="s">
         <v>479</v>
@@ -25122,7 +26302,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>516</v>
@@ -25142,7 +26322,7 @@
         <v>488</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -25162,7 +26342,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -25182,7 +26362,7 @@
         <v>400</v>
       </c>
       <c r="X21" t="s">
-        <v>500</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -25202,7 +26382,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23">
@@ -25219,7 +26399,7 @@
         <v>453</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -25236,7 +26416,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -25253,7 +26433,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -25267,7 +26447,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -25281,7 +26461,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -25295,7 +26475,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -25309,7 +26489,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -25320,7 +26500,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -25331,7 +26511,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -25342,7 +26522,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -25353,7 +26533,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -25364,7 +26544,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -25375,7 +26555,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -25386,7 +26566,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -25397,7 +26577,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>440</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +26588,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39">
@@ -25416,7 +26596,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40">
@@ -25424,7 +26604,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -25432,7 +26612,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -25440,7 +26620,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -25448,7 +26628,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -25456,7 +26636,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -25464,7 +26644,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>455</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -25472,7 +26652,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47">
@@ -25480,7 +26660,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -25488,7 +26668,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -25496,7 +26676,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -25504,7 +26684,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -25512,7 +26692,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>501</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -25520,7 +26700,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53">
@@ -25528,7 +26708,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
@@ -25536,7 +26716,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -25544,7 +26724,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -25552,7 +26732,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57">
@@ -25560,7 +26740,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -25568,7 +26748,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -25576,7 +26756,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -25584,7 +26764,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -25592,7 +26772,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -25600,7 +26780,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -25608,7 +26788,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -25616,7 +26796,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65">
@@ -25624,7 +26804,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66">
@@ -25632,7 +26812,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -25640,7 +26820,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68">
@@ -25648,7 +26828,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69">
@@ -25656,7 +26836,7 @@
         <v>421</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -25664,7 +26844,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -25672,7 +26852,7 @@
         <v>422</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -25680,7 +26860,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -25688,7 +26868,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -25696,7 +26876,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -25704,7 +26884,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76">
@@ -25712,7 +26892,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77">
@@ -25720,7 +26900,7 @@
         <v>428</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -25728,7 +26908,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -25736,7 +26916,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>513</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -25744,7 +26924,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81">
@@ -25752,7 +26932,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -25760,7 +26940,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -25768,7 +26948,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>502</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -25776,7 +26956,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85">
@@ -25784,7 +26964,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -25792,7 +26972,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87">
@@ -25800,7 +26980,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -25808,7 +26988,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -25816,7 +26996,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -25824,7 +27004,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -25832,7 +27012,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -25840,161 +27020,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -20,14 +20,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19350" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19866" uniqueCount="525">
   <si>
     <t>description</t>
   </si>
@@ -1626,6 +1626,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1648,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="628" x14ac:knownFonts="1">
+  <fonts count="644" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5589,8 +5604,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1084">
+  <fills count="1111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11729,8 +11845,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1123">
+  <borders count="1151">
     <border>
       <left/>
       <right/>
@@ -23048,6 +23317,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23055,7 +23606,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="655">
+  <cellXfs count="671">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24991,52 +25542,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1059" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1059" fontId="612" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1062" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1062" fontId="614" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1065" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1065" fontId="615" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1068" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1068" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="617" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="618" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="619" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1074" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1074" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="1077" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1077" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="622" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="624" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="625" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1086" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1089" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1092" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1095" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25391,7 +25990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25821,6 +26420,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>520</v>
+      </c>
       <c r="G6" t="s">
         <v>396</v>
       </c>
@@ -25943,7 +26545,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -25996,7 +26598,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -26037,7 +26639,7 @@
         <v>466</v>
       </c>
       <c r="K10" t="s">
-        <v>398</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -26075,7 +26677,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>522</v>
       </c>
       <c r="M11" t="s">
         <v>489</v>
@@ -26110,7 +26712,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="M12" t="s">
         <v>454</v>
@@ -26145,7 +26747,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>490</v>
@@ -26180,7 +26782,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -26212,7 +26814,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -26244,7 +26846,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -26276,7 +26878,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>519</v>
@@ -26299,7 +26901,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>471</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -26319,7 +26921,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>488</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -26339,7 +26941,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -26359,7 +26961,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -26379,7 +26981,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>488</v>
       </c>
       <c r="X22" t="s">
         <v>500</v>
@@ -26396,7 +26998,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -26413,7 +27015,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -26430,7 +27032,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -26446,6 +27048,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>453</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -26460,6 +27065,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -26474,6 +27082,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -27060,126 +27671,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19866" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20384" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1641,6 +1641,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1654,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="644" x14ac:knownFonts="1">
+  <fonts count="660" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5705,8 +5711,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1111">
+  <fills count="1138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11998,8 +12105,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1151">
+  <borders count="1179">
     <border>
       <left/>
       <right/>
@@ -23599,6 +23859,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23606,7 +24148,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="671">
+  <cellXfs count="687">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25590,52 +26132,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1086" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1086" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1089" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1089" fontId="630" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1092" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1092" fontId="631" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="1095" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1095" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="633" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="634" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="635" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1101" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1104" fontId="637" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="640" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="641" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1113" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1116" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1119" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1122" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1128" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1131" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27141,7 +27731,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>525</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -27152,7 +27742,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -27163,7 +27753,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -27174,7 +27764,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -27185,7 +27775,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -27196,7 +27786,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>440</v>
@@ -27204,7 +27794,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>401</v>
@@ -27212,7 +27802,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -27220,7 +27810,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -27228,7 +27818,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -27236,7 +27826,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -27244,7 +27834,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -27252,7 +27842,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -27260,7 +27850,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>455</v>
@@ -27268,7 +27858,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -27276,7 +27866,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -27284,7 +27874,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -27292,7 +27882,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -27300,7 +27890,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -27308,7 +27898,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>501</v>
@@ -27316,7 +27906,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>481</v>
@@ -27324,7 +27914,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -27332,7 +27922,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -27340,7 +27930,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>474</v>
@@ -27348,7 +27938,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -27356,7 +27946,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -27364,7 +27954,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -27372,7 +27962,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -27380,7 +27970,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -27388,7 +27978,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -27396,7 +27986,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -27404,7 +27994,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>451</v>
@@ -27412,7 +28002,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>491</v>
@@ -27420,7 +28010,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -27428,7 +28018,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>397</v>
@@ -27436,7 +28026,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>456</v>
@@ -27444,7 +28034,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>421</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -27452,7 +28042,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -27460,7 +28050,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -27468,7 +28058,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -27476,7 +28066,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -27484,7 +28074,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>526</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -27492,7 +28082,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>469</v>
@@ -27500,7 +28090,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>485</v>
@@ -27508,7 +28098,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>428</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -27516,7 +28106,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -27524,7 +28114,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>428</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -27532,7 +28122,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>513</v>
@@ -27540,7 +28130,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -27548,7 +28138,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -27556,7 +28146,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -27564,7 +28154,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>502</v>
@@ -27572,7 +28162,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -27580,7 +28170,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>468</v>
@@ -27588,7 +28178,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -27596,7 +28186,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -27604,7 +28194,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -27612,7 +28202,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -27620,7 +28210,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -27628,18 +28218,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20384" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20904" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1647,6 +1647,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1660,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="660" x14ac:knownFonts="1">
+  <fonts count="676" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5812,8 +5818,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1138">
+  <fills count="1168">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12258,8 +12365,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1179">
+  <borders count="1207">
     <border>
       <left/>
       <right/>
@@ -24141,6 +24418,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24148,7 +24707,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="687">
+  <cellXfs count="703">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26180,52 +26739,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1113" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1113" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1116" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1116" fontId="646" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1119" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1119" fontId="647" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1122" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1122" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="650" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="651" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1128" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1128" fontId="652" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="1131" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1131" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="654" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="656" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="657" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1143" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1146" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1149" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26580,7 +27187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -28272,126 +28879,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>457</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -30,28 +30,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20904" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21432" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1653,6 +1654,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1682,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="676" x14ac:knownFonts="1">
+  <fonts count="692" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5919,8 +5941,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1168">
+  <fills count="1198">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12535,8 +12658,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1207">
+  <borders count="1235">
     <border>
       <left/>
       <right/>
@@ -12573,6 +12866,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24707,7 +25282,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="703">
+  <cellXfs count="719">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26787,52 +27362,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1140" fontId="660" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="1143" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1143" fontId="662" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="1146" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1146" fontId="663" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="1149" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1149" fontId="664" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="666" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="666" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="667" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="668" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1155" fontId="668" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="669" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1158" fontId="669" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="670" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="671" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="672" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="673" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="674" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1167" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1170" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1173" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1176" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1179" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1185" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1188" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27187,7 +27810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27239,51 +27862,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" t="s">
         <v>494</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>411</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>423</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>424</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>407</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>425</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -27328,51 +27954,54 @@
         <v>429</v>
       </c>
       <c r="N2" t="s">
+        <v>530</v>
+      </c>
+      <c r="O2" t="s">
         <v>497</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>430</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>431</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>412</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>435</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>436</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>408</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>444</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>508</v>
       </c>
     </row>
@@ -27417,45 +28046,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>531</v>
+      </c>
+      <c r="O3" t="s">
         <v>498</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>432</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>413</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>437</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -27497,45 +28129,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>532</v>
+      </c>
+      <c r="O4" t="s">
         <v>499</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>414</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>438</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>445</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -27570,40 +28205,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>415</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>439</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>446</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -27635,37 +28273,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>399</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>416</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>458</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>447</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -27691,37 +28332,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>434</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>459</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>448</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -27747,34 +28391,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>418</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>449</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -27800,25 +28444,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>419</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -27841,22 +28485,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>433</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>420</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>492</v>
       </c>
     </row>
@@ -27879,19 +28523,19 @@
       <c r="M11" t="s">
         <v>489</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>509</v>
       </c>
     </row>
@@ -27914,19 +28558,19 @@
       <c r="M12" t="s">
         <v>454</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>510</v>
       </c>
     </row>
@@ -27949,25 +28593,25 @@
       <c r="M13" t="s">
         <v>490</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -27984,25 +28628,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -28016,25 +28660,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>517</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>393</v>
@@ -28048,25 +28692,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>518</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>394</v>
@@ -28077,19 +28721,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>519</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>479</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>426</v>
@@ -28100,16 +28744,16 @@
       <c r="K18" t="s">
         <v>471</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -28120,16 +28764,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -28140,16 +28784,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -28160,16 +28804,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -28180,13 +28824,13 @@
       <c r="K22" t="s">
         <v>488</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -28197,13 +28841,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>407</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -28214,13 +28858,13 @@
       <c r="K24" t="s">
         <v>400</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>463</v>
@@ -28231,13 +28875,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -28248,13 +28892,13 @@
       <c r="K26" t="s">
         <v>453</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -28265,13 +28909,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>425</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>486</v>
@@ -28282,13 +28926,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>425</v>
       </c>
       <c r="E29" t="s">
         <v>487</v>
@@ -28296,18 +28940,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>427</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -28318,7 +28965,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -28329,7 +28976,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -28340,7 +28987,7 @@
       <c r="G33" t="s">
         <v>525</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -28351,7 +28998,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -28362,7 +29009,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -28373,7 +29020,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -28384,7 +29031,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -28395,7 +29042,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>440</v>
       </c>
     </row>
@@ -28403,7 +29050,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>401</v>
       </c>
     </row>
@@ -28411,7 +29058,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -28419,7 +29066,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -28427,7 +29074,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -28435,7 +29082,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -28443,7 +29090,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -28451,7 +29098,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -28459,7 +29106,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>455</v>
       </c>
     </row>
@@ -28467,7 +29114,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -28475,7 +29122,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -28483,7 +29130,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -28491,7 +29138,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -28499,7 +29146,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -28507,7 +29154,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>501</v>
       </c>
     </row>
@@ -28515,7 +29162,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>481</v>
       </c>
     </row>
@@ -28523,7 +29170,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -28531,7 +29178,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -28539,7 +29186,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>474</v>
       </c>
     </row>
@@ -28547,7 +29194,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -28555,7 +29202,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -28563,7 +29210,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -28571,7 +29218,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -28579,7 +29226,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -28587,7 +29234,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -28595,7 +29242,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -28603,7 +29250,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>451</v>
       </c>
     </row>
@@ -28611,7 +29258,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>491</v>
       </c>
     </row>
@@ -28619,7 +29266,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -28627,7 +29274,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>397</v>
       </c>
     </row>
@@ -28635,7 +29282,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>456</v>
       </c>
     </row>
@@ -28643,7 +29290,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -28651,7 +29298,7 @@
       <c r="G70" t="s">
         <v>421</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -28659,7 +29306,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -28667,7 +29314,7 @@
       <c r="G72" t="s">
         <v>422</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -28675,7 +29322,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -28683,7 +29330,7 @@
       <c r="G74" t="s">
         <v>526</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -28691,7 +29338,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>469</v>
       </c>
     </row>
@@ -28699,7 +29346,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>485</v>
       </c>
     </row>
@@ -28707,7 +29354,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -28715,7 +29362,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -28723,7 +29370,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -28731,7 +29378,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>513</v>
       </c>
     </row>
@@ -28739,7 +29386,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -28747,7 +29394,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -28755,7 +29402,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -28763,7 +29410,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>502</v>
       </c>
     </row>
@@ -28771,7 +29418,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -28779,7 +29426,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>468</v>
       </c>
     </row>
@@ -28787,7 +29434,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -28795,7 +29442,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -28803,7 +29450,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -28811,7 +29458,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -28819,7 +29466,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -28827,7 +29474,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>442</v>
       </c>
     </row>
@@ -28835,7 +29482,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>450</v>
       </c>
     </row>
@@ -28843,172 +29490,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21432" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22495" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1675,6 +1675,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1694,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="692" x14ac:knownFonts="1">
+  <fonts count="724" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6042,8 +6054,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1198">
+  <fills count="1258">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12828,8 +13042,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1235">
+  <borders count="1291">
     <border>
       <left/>
       <right/>
@@ -12866,6 +13420,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25282,7 +26400,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="719">
+  <cellXfs count="751">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27410,52 +28528,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1167" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1170" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1170" fontId="676" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="677" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1173" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1173" fontId="678" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1176" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1176" fontId="679" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="1179" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1179" fontId="680" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="681" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="1182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1182" fontId="682" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="683" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="684" fillId="1185" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1185" fontId="684" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="1188" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1188" fontId="685" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1191" fontId="686" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1191" fontId="687" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="688" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1194" fontId="689" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="690" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1200" fontId="692" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="693" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1203" fontId="694" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1206" fontId="695" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1209" fontId="696" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="697" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="698" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1215" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1218" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1221" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1221" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1209" fontId="704" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1209" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1230" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="1233" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1236" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1239" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1245" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1248" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1251" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="1251" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1239" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1239" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28206,7 +29420,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -28274,7 +29488,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -28333,7 +29547,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -28391,6 +29605,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>533</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -28444,6 +29661,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>534</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -28485,6 +29705,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>535</v>
+      </c>
       <c r="Q10" t="s">
         <v>433</v>
       </c>
@@ -28873,7 +30096,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -28890,7 +30113,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -28907,7 +30130,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -28924,7 +30147,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -28939,6 +30162,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -51,8 +51,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22495" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23030" uniqueCount="544">
   <si>
     <t>description</t>
   </si>
@@ -1688,13 +1688,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="724" x14ac:knownFonts="1">
+  <fonts count="740" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6256,8 +6268,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1258">
+  <fills count="1288">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13382,8 +13495,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1291">
+  <borders count="1319">
     <border>
       <left/>
       <right/>
@@ -13420,6 +13703,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -26400,7 +26965,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="751">
+  <cellXfs count="767">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28624,52 +29189,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="707" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1230" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1230" fontId="708" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="1233" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1233" fontId="710" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="711" fillId="1236" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1236" fontId="711" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="712" fillId="1239" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1239" fontId="712" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="713" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="714" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1242" fontId="714" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="715" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="716" fillId="1245" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1245" fontId="716" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="717" fillId="1248" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1248" fontId="717" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="1251" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1251" fontId="718" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="719" fillId="1251" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1251" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1239" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="720" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="721" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1239" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1260" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1263" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1266" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1269" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1275" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1278" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1281" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1281" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29230,7 +29843,7 @@
         <v>477</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="E3" t="s">
         <v>472</v>
@@ -29313,7 +29926,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -29396,7 +30009,7 @@
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E5" t="s">
         <v>473</v>
@@ -29420,7 +30033,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -29466,6 +30079,9 @@
       <c r="B6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>507</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -29488,7 +30104,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -29547,7 +30163,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -29606,7 +30222,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -29662,7 +30278,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -29706,7 +30322,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q10" t="s">
         <v>433</v>
@@ -29746,6 +30362,9 @@
       <c r="M11" t="s">
         <v>489</v>
       </c>
+      <c r="N11" t="s">
+        <v>534</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -29781,6 +30400,9 @@
       <c r="M12" t="s">
         <v>454</v>
       </c>
+      <c r="N12" t="s">
+        <v>535</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -30096,7 +30718,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -25,7 +25,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23030" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23567" uniqueCount="546">
   <si>
     <t>description</t>
   </si>
@@ -1700,13 +1700,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="740" x14ac:knownFonts="1">
+  <fonts count="756" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6369,8 +6375,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1288">
+  <fills count="1318">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13665,8 +13772,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1319">
+  <borders count="1347">
     <border>
       <left/>
       <right/>
@@ -13703,6 +13980,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -26965,7 +27524,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="767">
+  <cellXfs count="783">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29237,52 +29796,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="723" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1260" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1260" fontId="724" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="725" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="1263" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1263" fontId="726" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="1266" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1266" fontId="727" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="1269" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1269" fontId="728" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="729" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="730" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="730" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="731" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="732" fillId="1275" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1275" fontId="732" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1278" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1278" fontId="733" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="1281" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1281" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1281" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1281" fontId="735" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="736" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="737" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="738" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1290" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1293" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1296" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1299" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1302" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1305" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1308" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1311" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1311" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="1317" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29637,7 +30244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30023,6 +30630,9 @@
       <c r="H5" t="s">
         <v>470</v>
       </c>
+      <c r="I5" t="s">
+        <v>544</v>
+      </c>
       <c r="J5" t="s">
         <v>352</v>
       </c>
@@ -30899,7 +31509,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>401</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40">
@@ -30907,7 +31517,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
@@ -30915,7 +31525,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -30923,7 +31533,7 @@
         <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -30931,7 +31541,7 @@
         <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -30939,7 +31549,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -30947,7 +31557,7 @@
         <v>344</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -30955,7 +31565,7 @@
         <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>455</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -30963,7 +31573,7 @@
         <v>212</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48">
@@ -30971,7 +31581,7 @@
         <v>321</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -30979,7 +31589,7 @@
         <v>340</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -30987,7 +31597,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -30995,7 +31605,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -31003,7 +31613,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>501</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -31011,7 +31621,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54">
@@ -31019,7 +31629,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55">
@@ -31027,7 +31637,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -31035,7 +31645,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -31043,7 +31653,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58">
@@ -31051,7 +31661,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -31059,7 +31669,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -31067,7 +31677,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -31075,7 +31685,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -31083,7 +31693,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -31091,7 +31701,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -31099,7 +31709,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -31107,7 +31717,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66">
@@ -31115,7 +31725,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67">
@@ -31123,7 +31733,7 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -31131,7 +31741,7 @@
         <v>354</v>
       </c>
       <c r="Y68" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69">
@@ -31139,7 +31749,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70">
@@ -31147,7 +31757,7 @@
         <v>421</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -31155,7 +31765,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -31163,7 +31773,7 @@
         <v>422</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -31171,7 +31781,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -31179,7 +31789,7 @@
         <v>526</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
@@ -31187,7 +31797,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -31195,7 +31805,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77">
@@ -31203,7 +31813,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78">
@@ -31211,7 +31821,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -31219,7 +31829,7 @@
         <v>428</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -31227,7 +31837,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>513</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -31235,7 +31845,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82">
@@ -31243,7 +31853,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -31251,7 +31861,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -31259,7 +31869,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>502</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -31267,7 +31877,7 @@
         <v>272</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86">
@@ -31275,7 +31885,7 @@
         <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -31283,7 +31893,7 @@
         <v>273</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88">
@@ -31291,7 +31901,7 @@
         <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -31299,7 +31909,7 @@
         <v>306</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -31307,7 +31917,7 @@
         <v>312</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -31315,7 +31925,7 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -31323,7 +31933,7 @@
         <v>341</v>
       </c>
       <c r="Y92" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -31331,7 +31941,7 @@
         <v>278</v>
       </c>
       <c r="Y93" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94">
@@ -31339,171 +31949,176 @@
         <v>279</v>
       </c>
       <c r="Y94" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>524</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>150</v>
+        <v>527</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>528</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>384</v>
+        <v>528</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -23,13 +23,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23567" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24114" uniqueCount="557">
   <si>
     <t>description</t>
   </si>
@@ -1706,13 +1706,46 @@
   <si>
     <t>assertTextNotContains(locator,text)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="756" x14ac:knownFonts="1">
+  <fonts count="772" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6476,8 +6509,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1318">
+  <fills count="1345">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13942,8 +14076,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1347">
+  <borders count="1379">
     <border>
       <left/>
       <right/>
@@ -27339,6 +27626,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -27524,7 +28137,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="783">
+  <cellXfs count="799">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29844,52 +30457,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="739" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="1290" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1290" fontId="740" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="741" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="1293" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1293" fontId="742" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="743" fillId="1296" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1296" fontId="743" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="1299" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1299" fontId="744" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="745" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="1302" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1302" fontId="746" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="747" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="748" fillId="1305" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1305" fontId="748" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="749" fillId="1308" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1308" fontId="749" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="750" fillId="1311" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1311" fontId="750" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="751" fillId="1311" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1311" fontId="751" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="752" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="752" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="753" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="753" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="754" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="754" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="755" fillId="1317" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1317" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="1320" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1323" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1326" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1329" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1335" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1326" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1338" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1338" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30244,7 +30905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30766,6 +31427,9 @@
       <c r="H7" t="s">
         <v>461</v>
       </c>
+      <c r="J7" t="s">
+        <v>548</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -30806,7 +31470,7 @@
         <v>448</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8">
@@ -30862,7 +31526,7 @@
         <v>449</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9">
@@ -30909,7 +31573,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10">
@@ -30950,7 +31614,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>492</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -30988,7 +31652,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>509</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -31008,7 +31672,7 @@
         <v>398</v>
       </c>
       <c r="M12" t="s">
-        <v>454</v>
+        <v>549</v>
       </c>
       <c r="N12" t="s">
         <v>535</v>
@@ -31026,7 +31690,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>510</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -31046,7 +31710,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -31061,7 +31725,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14">
@@ -31081,7 +31745,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>490</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -31096,7 +31760,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15">
@@ -31113,7 +31777,7 @@
         <v>523</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>517</v>
@@ -31128,7 +31792,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16">
@@ -31145,7 +31809,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>518</v>
@@ -31160,7 +31824,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17">
@@ -31176,6 +31840,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>519</v>
       </c>
@@ -31183,7 +31850,7 @@
         <v>479</v>
       </c>
       <c r="AD17" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18">
@@ -31203,7 +31870,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19">
@@ -31223,7 +31890,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20">
@@ -31243,7 +31910,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21">
@@ -31263,7 +31930,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22">
@@ -31282,6 +31949,9 @@
       <c r="Y22" t="s">
         <v>500</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -31299,6 +31969,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -31316,6 +31989,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -31333,6 +32009,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -31350,6 +32029,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -31367,6 +32049,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -31597,7 +32282,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51">
@@ -31605,7 +32290,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -31613,7 +32298,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -31621,7 +32306,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>501</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -31629,7 +32314,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55">
@@ -31637,7 +32322,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56">
@@ -31645,7 +32330,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -31653,7 +32338,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -31661,7 +32346,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59">
@@ -31669,7 +32354,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -31677,7 +32362,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -31685,7 +32370,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -31693,7 +32378,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -31701,7 +32386,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -31709,7 +32394,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -31717,7 +32402,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -31725,7 +32410,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67">
@@ -31733,15 +32418,15 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>546</v>
       </c>
       <c r="Y68" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -31749,7 +32434,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70">
@@ -31757,7 +32442,7 @@
         <v>421</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71">
@@ -31765,7 +32450,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -31773,7 +32458,7 @@
         <v>422</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -31781,7 +32466,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -31789,7 +32474,7 @@
         <v>526</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -31797,7 +32482,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -31805,7 +32490,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -31813,7 +32498,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78">
@@ -31821,7 +32506,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79">
@@ -31829,7 +32514,7 @@
         <v>428</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -31837,7 +32522,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -31845,7 +32530,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>513</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -31853,7 +32538,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83">
@@ -31861,7 +32546,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -31869,256 +32554,264 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>547</v>
       </c>
       <c r="Y85" t="s">
-        <v>502</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>201</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y87" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y88" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y91" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y92" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y93" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>524</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>150</v>
+        <v>527</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>528</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>384</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -42,17 +42,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24114" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24665" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1739,13 +1740,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="772" x14ac:knownFonts="1">
+  <fonts count="788" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6610,8 +6620,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1345">
+  <fills count="1372">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14229,8 +14340,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1379">
+  <borders count="1411">
     <border>
       <left/>
       <right/>
@@ -27626,6 +27890,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28137,7 +28727,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="799">
+  <cellXfs count="815">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30505,52 +31095,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1317" fontId="755" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="1320" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1320" fontId="756" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="757" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="758" fillId="1323" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1323" fontId="758" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="759" fillId="1326" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1326" fontId="759" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="760" fillId="1329" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1329" fontId="760" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="761" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="762" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1332" fontId="762" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="763" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="764" fillId="1335" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1335" fontId="764" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="765" fillId="1326" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1326" fontId="765" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="766" fillId="1338" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1378" fillId="1338" fontId="766" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="767" fillId="1338" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1378" fillId="1338" fontId="767" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1329" fontId="768" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="769" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1341" fontId="769" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1329" fontId="770" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="771" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1347" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1350" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1353" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="1356" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1362" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1353" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1365" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1365" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1371" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30905,7 +31543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30990,21 +31628,24 @@
         <v>407</v>
       </c>
       <c r="Y1" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>425</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -31082,21 +31723,24 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>444</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>508</v>
       </c>
     </row>
@@ -31167,22 +31811,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -31250,22 +31894,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>445</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -31324,22 +31968,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>356</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>446</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -31392,22 +32036,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>458</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>447</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -31454,22 +32098,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>459</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>448</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>551</v>
       </c>
     </row>
@@ -31510,22 +32154,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>449</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>552</v>
       </c>
     </row>
@@ -31566,13 +32210,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>553</v>
       </c>
     </row>
@@ -31607,13 +32251,13 @@
       <c r="T10" t="s">
         <v>420</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -31645,13 +32289,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -31683,13 +32327,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -31718,13 +32362,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>492</v>
       </c>
     </row>
@@ -31753,13 +32397,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>509</v>
       </c>
     </row>
@@ -31785,13 +32429,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>510</v>
       </c>
     </row>
@@ -31817,13 +32461,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>514</v>
       </c>
     </row>
@@ -31843,13 +32487,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>519</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>479</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>515</v>
       </c>
     </row>
@@ -31866,10 +32510,10 @@
       <c r="K18" t="s">
         <v>471</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>493</v>
       </c>
     </row>
@@ -31886,10 +32530,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>511</v>
       </c>
     </row>
@@ -31906,10 +32550,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>512</v>
       </c>
     </row>
@@ -31926,10 +32570,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>516</v>
       </c>
     </row>
@@ -31938,7 +32582,7 @@
         <v>424</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="G22" t="s">
         <v>300</v>
@@ -31946,10 +32590,10 @@
       <c r="K22" t="s">
         <v>488</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>500</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -31958,7 +32602,7 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>291</v>
@@ -31966,10 +32610,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>554</v>
       </c>
     </row>
@@ -31978,7 +32622,7 @@
         <v>407</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
         <v>280</v>
@@ -31986,19 +32630,19 @@
       <c r="K24" t="s">
         <v>400</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>557</v>
       </c>
       <c r="E25" t="s">
-        <v>463</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -32006,19 +32650,19 @@
       <c r="K25" t="s">
         <v>541</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>463</v>
       </c>
       <c r="G26" t="s">
         <v>283</v>
@@ -32026,19 +32670,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>267</v>
@@ -32046,19 +32690,19 @@
       <c r="K27" t="s">
         <v>453</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>284</v>
@@ -32066,16 +32710,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>425</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -32083,117 +32727,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>425</v>
       </c>
       <c r="E30" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>427</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>525</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>545</v>
       </c>
     </row>
@@ -32201,7 +32851,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>401</v>
       </c>
     </row>
@@ -32209,7 +32859,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -32217,7 +32867,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -32225,7 +32875,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -32233,7 +32883,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -32241,7 +32891,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -32249,7 +32899,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -32257,7 +32907,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>455</v>
       </c>
     </row>
@@ -32265,7 +32915,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -32273,7 +32923,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -32281,7 +32931,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>550</v>
       </c>
     </row>
@@ -32289,7 +32939,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -32297,7 +32947,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -32305,7 +32955,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -32313,7 +32963,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>501</v>
       </c>
     </row>
@@ -32321,7 +32971,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>481</v>
       </c>
     </row>
@@ -32329,7 +32979,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -32337,7 +32987,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -32345,7 +32995,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>474</v>
       </c>
     </row>
@@ -32353,7 +33003,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -32361,7 +33011,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -32369,7 +33019,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -32377,7 +33027,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -32385,7 +33035,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -32393,7 +33043,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -32401,7 +33051,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -32409,7 +33059,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>451</v>
       </c>
     </row>
@@ -32417,7 +33067,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>491</v>
       </c>
     </row>
@@ -32425,7 +33075,7 @@
       <c r="G68" t="s">
         <v>546</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -32433,7 +33083,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>397</v>
       </c>
     </row>
@@ -32441,7 +33091,7 @@
       <c r="G70" t="s">
         <v>421</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>456</v>
       </c>
     </row>
@@ -32449,7 +33099,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -32457,7 +33107,7 @@
       <c r="G72" t="s">
         <v>422</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -32465,7 +33115,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -32473,7 +33123,7 @@
       <c r="G74" t="s">
         <v>526</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -32481,7 +33131,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -32489,7 +33139,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -32497,7 +33147,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>469</v>
       </c>
     </row>
@@ -32505,7 +33155,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>485</v>
       </c>
     </row>
@@ -32513,7 +33163,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -32521,7 +33171,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -32529,7 +33179,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -32537,7 +33187,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>513</v>
       </c>
     </row>
@@ -32545,7 +33195,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -32553,7 +33203,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -32561,7 +33211,7 @@
       <c r="G85" t="s">
         <v>547</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -32569,7 +33219,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>502</v>
       </c>
     </row>
@@ -32577,7 +33227,7 @@
       <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -32585,7 +33235,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>468</v>
       </c>
     </row>
@@ -32593,7 +33243,7 @@
       <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -32601,7 +33251,7 @@
       <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -32609,7 +33259,7 @@
       <c r="G91" t="s">
         <v>312</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -32617,7 +33267,7 @@
       <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -32625,7 +33275,7 @@
       <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -32633,7 +33283,7 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>442</v>
       </c>
     </row>
@@ -32641,177 +33291,177 @@
       <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24665" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25218" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1749,13 +1749,19 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="788" x14ac:knownFonts="1">
+  <fonts count="804" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6721,8 +6727,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1372">
+  <fills count="1399">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14493,8 +14600,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1411">
+  <borders count="1443">
     <border>
       <left/>
       <right/>
@@ -27890,6 +28150,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28727,7 +29313,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="815">
+  <cellXfs count="831">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31143,52 +31729,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="771" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="1347" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1347" fontId="772" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="773" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="1350" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1350" fontId="774" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="775" fillId="1353" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1394" fillId="1353" fontId="775" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="776" fillId="1356" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1356" fontId="776" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="777" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="778" fillId="1359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1359" fontId="778" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="779" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="780" fillId="1362" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1362" fontId="780" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="781" fillId="1353" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1353" fontId="781" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="782" fillId="1365" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1365" fontId="782" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="1365" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1365" fontId="783" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="784" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1356" fontId="784" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="785" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="785" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1356" fontId="786" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="787" fillId="1371" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1371" fontId="787" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="1374" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1377" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="1380" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="1383" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1389" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1380" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1392" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="1392" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32865,7 +33499,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -32873,7 +33507,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -32881,7 +33515,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -32889,7 +33523,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -32897,7 +33531,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -32905,7 +33539,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
         <v>455</v>
@@ -32913,7 +33547,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -32921,7 +33555,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -32929,7 +33563,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s">
         <v>550</v>
@@ -32937,7 +33571,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -32945,7 +33579,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -32953,7 +33587,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -32961,7 +33595,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s">
         <v>501</v>
@@ -32969,7 +33603,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z55" t="s">
         <v>481</v>
@@ -32977,7 +33611,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -32985,7 +33619,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s">
         <v>347</v>
@@ -32993,7 +33627,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>304</v>
+        <v>561</v>
       </c>
       <c r="Z58" t="s">
         <v>474</v>
@@ -33001,7 +33635,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -33009,7 +33643,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -33017,7 +33651,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -33025,7 +33659,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -33033,7 +33667,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -33041,7 +33675,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -33049,7 +33683,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -33057,7 +33691,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="Z66" t="s">
         <v>451</v>
@@ -33065,7 +33699,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="Z67" t="s">
         <v>491</v>
@@ -33073,7 +33707,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>546</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -33081,7 +33715,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s">
         <v>397</v>
@@ -33089,7 +33723,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>421</v>
+        <v>546</v>
       </c>
       <c r="Z70" t="s">
         <v>456</v>
@@ -33097,7 +33731,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -33105,7 +33739,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -33113,7 +33747,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -33121,7 +33755,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>526</v>
+        <v>422</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -33129,7 +33763,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
         <v>198</v>
@@ -33137,7 +33771,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>526</v>
       </c>
       <c r="Z76" t="s">
         <v>199</v>
@@ -33145,7 +33779,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Z77" t="s">
         <v>469</v>
@@ -33153,7 +33787,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
         <v>485</v>
@@ -33161,7 +33795,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -33169,7 +33803,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -33177,7 +33811,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>428</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -33185,7 +33819,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s">
         <v>513</v>
@@ -33193,7 +33827,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -33201,7 +33835,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -33209,7 +33843,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>547</v>
+        <v>288</v>
       </c>
       <c r="Z85" t="s">
         <v>200</v>
@@ -33217,7 +33851,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
         <v>502</v>
@@ -33225,7 +33859,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>289</v>
+        <v>547</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -33233,7 +33867,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>468</v>
@@ -33241,7 +33875,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Z89" t="s">
         <v>202</v>
@@ -33249,7 +33883,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -33257,7 +33891,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -33265,7 +33899,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -33273,7 +33907,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Z93" t="s">
         <v>204</v>
@@ -33281,7 +33915,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Z94" t="s">
         <v>442</v>
@@ -33289,18 +33923,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="Z95" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>278</v>
+      </c>
       <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>279</v>
+      </c>
       <c r="Z97" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,13 +42,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25218" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25769" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1755,13 +1755,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="804" x14ac:knownFonts="1">
+  <fonts count="820" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6828,8 +6831,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1399">
+  <fills count="1426">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14753,8 +14857,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1443">
+  <borders count="1475">
     <border>
       <left/>
       <right/>
@@ -28150,6 +28407,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29313,7 +29896,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="831">
+  <cellXfs count="847">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31777,52 +32360,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1371" fontId="787" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="788" fillId="1374" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1374" fontId="788" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="789" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="790" fillId="1377" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1377" fontId="790" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="791" fillId="1380" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1380" fontId="791" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="792" fillId="1383" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1383" fontId="792" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="793" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="794" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1386" fontId="794" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="795" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="796" fillId="1389" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1389" fontId="796" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="797" fillId="1380" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1380" fontId="797" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="798" fillId="1392" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1392" fontId="798" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="799" fillId="1392" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1392" fontId="799" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="800" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1383" fontId="800" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="801" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="801" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="802" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1383" fontId="802" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="803" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="1401" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="1404" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1407" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="1410" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="1416" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1407" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="1419" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1419" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32177,7 +32808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -32262,24 +32893,21 @@
         <v>407</v>
       </c>
       <c r="Y1" t="s">
-        <v>557</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>425</v>
       </c>
       <c r="AD1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -32357,24 +32985,21 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
-        <v>559</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>444</v>
       </c>
       <c r="AD2" t="s">
-        <v>444</v>
-      </c>
-      <c r="AE2" t="s">
         <v>508</v>
       </c>
     </row>
@@ -32445,22 +33070,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB3" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="AC3" t="s">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -32528,22 +33153,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
+      <c r="Y4" t="s">
+        <v>355</v>
+      </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>445</v>
       </c>
       <c r="AD4" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -32602,22 +33227,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
+      <c r="Y5" t="s">
+        <v>356</v>
+      </c>
       <c r="Z5" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>446</v>
       </c>
       <c r="AD5" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -32670,22 +33295,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="AA6" t="s">
-        <v>458</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>187</v>
+        <v>447</v>
       </c>
       <c r="AD6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -32732,22 +33357,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>459</v>
       </c>
       <c r="AA7" t="s">
-        <v>459</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>448</v>
       </c>
       <c r="AD7" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE7" t="s">
         <v>551</v>
       </c>
     </row>
@@ -32788,22 +33413,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="AD8" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE8" t="s">
         <v>552</v>
       </c>
     </row>
@@ -32844,13 +33469,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>553</v>
       </c>
     </row>
@@ -32885,13 +33510,13 @@
       <c r="T10" t="s">
         <v>420</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -32923,13 +33548,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -32961,13 +33586,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -32996,13 +33621,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>492</v>
       </c>
     </row>
@@ -33031,13 +33656,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>509</v>
       </c>
     </row>
@@ -33063,13 +33688,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>510</v>
       </c>
     </row>
@@ -33087,7 +33712,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>562</v>
       </c>
       <c r="Q16" t="s">
         <v>518</v>
@@ -33095,13 +33720,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>514</v>
       </c>
     </row>
@@ -33119,15 +33744,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>519</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>479</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>515</v>
       </c>
     </row>
@@ -33144,10 +33769,13 @@
       <c r="K18" t="s">
         <v>471</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>493</v>
       </c>
     </row>
@@ -33164,10 +33792,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>511</v>
       </c>
     </row>
@@ -33184,10 +33812,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>512</v>
       </c>
     </row>
@@ -33204,10 +33832,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>516</v>
       </c>
     </row>
@@ -33224,10 +33852,10 @@
       <c r="K22" t="s">
         <v>488</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>500</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -33244,10 +33872,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>554</v>
       </c>
     </row>
@@ -33264,16 +33892,16 @@
       <c r="K24" t="s">
         <v>400</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>557</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -33284,16 +33912,16 @@
       <c r="K25" t="s">
         <v>541</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>463</v>
@@ -33304,16 +33932,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -33324,16 +33952,16 @@
       <c r="K27" t="s">
         <v>453</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -33344,13 +33972,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>425</v>
       </c>
       <c r="E29" t="s">
         <v>486</v>
@@ -33361,13 +33989,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>425</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>487</v>
@@ -33375,21 +34003,18 @@
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>427</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -33400,7 +34025,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -33411,7 +34036,7 @@
       <c r="G33" t="s">
         <v>525</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -33422,7 +34047,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -33433,7 +34058,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -33444,7 +34069,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -33455,7 +34080,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -33466,7 +34091,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>440</v>
       </c>
     </row>
@@ -33477,7 +34102,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>545</v>
       </c>
     </row>
@@ -33485,7 +34110,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>401</v>
       </c>
     </row>
@@ -33493,7 +34118,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -33501,7 +34126,7 @@
       <c r="G42" t="s">
         <v>560</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -33509,7 +34134,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -33517,7 +34142,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -33525,7 +34150,7 @@
       <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -33533,7 +34158,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -33541,7 +34166,7 @@
       <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>455</v>
       </c>
     </row>
@@ -33549,7 +34174,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -33557,7 +34182,7 @@
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -33565,7 +34190,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>550</v>
       </c>
     </row>
@@ -33573,7 +34198,7 @@
       <c r="G51" t="s">
         <v>369</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -33581,7 +34206,7 @@
       <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -33589,7 +34214,7 @@
       <c r="G53" t="s">
         <v>357</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -33597,7 +34222,7 @@
       <c r="G54" t="s">
         <v>332</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>501</v>
       </c>
     </row>
@@ -33605,7 +34230,7 @@
       <c r="G55" t="s">
         <v>269</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>481</v>
       </c>
     </row>
@@ -33613,7 +34238,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -33621,7 +34246,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -33629,7 +34254,7 @@
       <c r="G58" t="s">
         <v>561</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>474</v>
       </c>
     </row>
@@ -33637,7 +34262,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -33645,7 +34270,7 @@
       <c r="G60" t="s">
         <v>304</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -33653,7 +34278,7 @@
       <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -33661,7 +34286,7 @@
       <c r="G62" t="s">
         <v>338</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -33669,7 +34294,7 @@
       <c r="G63" t="s">
         <v>310</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -33677,7 +34302,7 @@
       <c r="G64" t="s">
         <v>311</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -33685,7 +34310,7 @@
       <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -33693,7 +34318,7 @@
       <c r="G66" t="s">
         <v>371</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>451</v>
       </c>
     </row>
@@ -33701,7 +34326,7 @@
       <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>491</v>
       </c>
     </row>
@@ -33709,7 +34334,7 @@
       <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -33717,7 +34342,7 @@
       <c r="G69" t="s">
         <v>270</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>397</v>
       </c>
     </row>
@@ -33725,7 +34350,7 @@
       <c r="G70" t="s">
         <v>546</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>456</v>
       </c>
     </row>
@@ -33733,7 +34358,7 @@
       <c r="G71" t="s">
         <v>315</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -33741,7 +34366,7 @@
       <c r="G72" t="s">
         <v>421</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -33749,7 +34374,7 @@
       <c r="G73" t="s">
         <v>305</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -33757,7 +34382,7 @@
       <c r="G74" t="s">
         <v>422</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -33765,7 +34390,7 @@
       <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -33773,7 +34398,7 @@
       <c r="G76" t="s">
         <v>526</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -33781,7 +34406,7 @@
       <c r="G77" t="s">
         <v>345</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>469</v>
       </c>
     </row>
@@ -33789,7 +34414,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>485</v>
       </c>
     </row>
@@ -33797,7 +34422,7 @@
       <c r="G79" t="s">
         <v>287</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -33805,7 +34430,7 @@
       <c r="G80" t="s">
         <v>292</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -33813,7 +34438,7 @@
       <c r="G81" t="s">
         <v>428</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -33821,7 +34446,7 @@
       <c r="G82" t="s">
         <v>333</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>513</v>
       </c>
     </row>
@@ -33829,7 +34454,7 @@
       <c r="G83" t="s">
         <v>271</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -33837,7 +34462,7 @@
       <c r="G84" t="s">
         <v>282</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -33845,7 +34470,7 @@
       <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -33853,7 +34478,7 @@
       <c r="G86" t="s">
         <v>277</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>502</v>
       </c>
     </row>
@@ -33861,7 +34486,7 @@
       <c r="G87" t="s">
         <v>547</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -33869,7 +34494,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>468</v>
       </c>
     </row>
@@ -33877,7 +34502,7 @@
       <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -33885,7 +34510,7 @@
       <c r="G90" t="s">
         <v>273</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -33893,7 +34518,7 @@
       <c r="G91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -33901,7 +34526,7 @@
       <c r="G92" t="s">
         <v>306</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -33909,7 +34534,7 @@
       <c r="G93" t="s">
         <v>312</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33917,7 +34542,7 @@
       <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>442</v>
       </c>
     </row>
@@ -33925,7 +34550,7 @@
       <c r="G95" t="s">
         <v>341</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>450</v>
       </c>
     </row>
@@ -33933,7 +34558,7 @@
       <c r="G96" t="s">
         <v>278</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -33941,167 +34566,167 @@
       <c r="G97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25769" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28540" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1758,13 +1758,25 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="820" x14ac:knownFonts="1">
+  <fonts count="900" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6932,8 +6944,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1426">
+  <fills count="1561">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15010,8 +15527,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1475">
+  <borders count="1635">
     <border>
       <left/>
       <right/>
@@ -28407,6 +29689,1636 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29896,7 +32808,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="847">
+  <cellXfs count="927">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32408,52 +35320,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="803" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="804" fillId="1401" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1401" fontId="804" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="805" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="806" fillId="1404" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1404" fontId="806" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="807" fillId="1407" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1407" fontId="807" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="808" fillId="1410" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1462" fillId="1410" fontId="808" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="809" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="809" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="810" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1413" fontId="810" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="811" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="812" fillId="1416" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1416" fontId="812" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="813" fillId="1407" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1407" fontId="813" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="814" fillId="1419" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1419" fontId="814" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="815" fillId="1419" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1419" fontId="815" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="816" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="816" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="817" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="817" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="818" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="818" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="819" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1428" fontId="820" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="821" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1431" fontId="822" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1490" fillId="1434" fontId="823" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1437" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="825" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1440" fontId="826" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1443" fontId="828" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1434" fontId="829" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1506" fillId="1446" fontId="830" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1506" fillId="1446" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="832" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1449" fontId="833" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1452" fontId="835" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1455" fontId="836" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="837" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1458" fontId="838" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1461" fontId="839" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1464" fontId="840" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="841" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1467" fontId="842" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1470" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1461" fontId="845" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1473" fontId="846" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1473" fontId="847" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1464" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1476" fontId="849" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1464" fontId="850" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1479" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1546" fillId="1482" fontId="852" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="853" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1485" fontId="854" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1488" fontId="855" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1491" fontId="856" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="857" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1494" fontId="858" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1497" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1488" fontId="861" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1500" fontId="862" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1500" fontId="863" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1491" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1503" fontId="865" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1491" fontId="866" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1506" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1578" fillId="1509" fontId="868" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="869" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1512" fontId="870" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1586" fillId="1515" fontId="871" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1590" fillId="1518" fontId="872" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="873" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1521" fontId="874" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1524" fontId="876" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1515" fontId="877" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1527" fontId="878" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1527" fontId="879" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1518" fontId="880" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1530" fontId="881" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1518" fontId="882" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1533" fontId="883" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="1536" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="1539" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="1542" borderId="1618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="1545" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="1548" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="1551" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="1542" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="1554" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="1554" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="1545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="1545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="1560" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32808,7 +35960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -33893,7 +37045,7 @@
         <v>400</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>563</v>
       </c>
       <c r="AD24" t="s">
         <v>555</v>
@@ -33913,7 +37065,7 @@
         <v>541</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
         <v>556</v>
@@ -33933,7 +37085,7 @@
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD26" t="s">
         <v>237</v>
@@ -33953,7 +37105,7 @@
         <v>453</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s">
         <v>238</v>
@@ -33973,7 +37125,7 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -33990,7 +37142,7 @@
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
@@ -34004,7 +37156,7 @@
         <v>217</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -34015,7 +37167,7 @@
         <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -34026,7 +37178,7 @@
         <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -34037,7 +37189,7 @@
         <v>525</v>
       </c>
       <c r="Y33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -34048,7 +37200,7 @@
         <v>261</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35">
@@ -34059,7 +37211,7 @@
         <v>331</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -34070,7 +37222,7 @@
         <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -34081,7 +37233,7 @@
         <v>262</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
@@ -34092,7 +37244,7 @@
         <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>440</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -34103,7 +37255,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>545</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
@@ -34111,7 +37263,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41">
@@ -34119,7 +37271,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42">
@@ -34127,7 +37279,7 @@
         <v>560</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43">
@@ -34135,7 +37287,7 @@
         <v>290</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -34143,7 +37295,7 @@
         <v>301</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -34151,7 +37303,7 @@
         <v>302</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -34159,7 +37311,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -34167,7 +37319,7 @@
         <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>455</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -34175,7 +37327,7 @@
         <v>212</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -34183,7 +37335,7 @@
         <v>321</v>
       </c>
       <c r="Y49" t="s">
-        <v>78</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50">
@@ -34191,7 +37343,7 @@
         <v>340</v>
       </c>
       <c r="Y50" t="s">
-        <v>550</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
@@ -34199,7 +37351,7 @@
         <v>369</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -34207,7 +37359,7 @@
         <v>303</v>
       </c>
       <c r="Y52" t="s">
-        <v>130</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53">
@@ -34215,7 +37367,7 @@
         <v>357</v>
       </c>
       <c r="Y53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -34223,7 +37375,7 @@
         <v>332</v>
       </c>
       <c r="Y54" t="s">
-        <v>501</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -34231,7 +37383,7 @@
         <v>269</v>
       </c>
       <c r="Y55" t="s">
-        <v>481</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
@@ -34239,7 +37391,7 @@
         <v>293</v>
       </c>
       <c r="Y56" t="s">
-        <v>132</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57">
@@ -34247,7 +37399,7 @@
         <v>294</v>
       </c>
       <c r="Y57" t="s">
-        <v>347</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58">
@@ -34255,7 +37407,7 @@
         <v>561</v>
       </c>
       <c r="Y58" t="s">
-        <v>474</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -34263,7 +37415,7 @@
         <v>295</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
@@ -34271,7 +37423,7 @@
         <v>304</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61">
@@ -34279,7 +37431,7 @@
         <v>313</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -34287,7 +37439,7 @@
         <v>338</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -34295,7 +37447,7 @@
         <v>310</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -34303,7 +37455,7 @@
         <v>311</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -34311,7 +37463,7 @@
         <v>370</v>
       </c>
       <c r="Y65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -34319,7 +37471,7 @@
         <v>371</v>
       </c>
       <c r="Y66" t="s">
-        <v>451</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -34327,7 +37479,7 @@
         <v>346</v>
       </c>
       <c r="Y67" t="s">
-        <v>491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
@@ -34335,7 +37487,7 @@
         <v>314</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69">
@@ -34343,7 +37495,7 @@
         <v>270</v>
       </c>
       <c r="Y69" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70">
@@ -34351,7 +37503,7 @@
         <v>546</v>
       </c>
       <c r="Y70" t="s">
-        <v>456</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
@@ -34359,7 +37511,7 @@
         <v>315</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72">
@@ -34367,7 +37519,7 @@
         <v>421</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73">
@@ -34375,7 +37527,7 @@
         <v>305</v>
       </c>
       <c r="Y73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -34383,7 +37535,7 @@
         <v>422</v>
       </c>
       <c r="Y74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -34391,7 +37543,7 @@
         <v>263</v>
       </c>
       <c r="Y75" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
@@ -34399,7 +37551,7 @@
         <v>526</v>
       </c>
       <c r="Y76" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -34407,7 +37559,7 @@
         <v>345</v>
       </c>
       <c r="Y77" t="s">
-        <v>469</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -34415,7 +37567,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>485</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -34423,7 +37575,7 @@
         <v>287</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80">
@@ -34431,7 +37583,7 @@
         <v>292</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81">
@@ -34439,7 +37591,7 @@
         <v>428</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -34447,7 +37599,7 @@
         <v>333</v>
       </c>
       <c r="Y82" t="s">
-        <v>513</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -34455,7 +37607,7 @@
         <v>271</v>
       </c>
       <c r="Y83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -34463,7 +37615,7 @@
         <v>282</v>
       </c>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85">
@@ -34471,7 +37623,7 @@
         <v>288</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -34479,7 +37631,7 @@
         <v>277</v>
       </c>
       <c r="Y86" t="s">
-        <v>502</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
@@ -34487,7 +37639,7 @@
         <v>547</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -34495,7 +37647,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89">
@@ -34503,7 +37655,7 @@
         <v>289</v>
       </c>
       <c r="Y89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -34511,7 +37663,7 @@
         <v>273</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91">
@@ -34519,7 +37671,7 @@
         <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -34527,7 +37679,7 @@
         <v>306</v>
       </c>
       <c r="Y92" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -34535,7 +37687,7 @@
         <v>312</v>
       </c>
       <c r="Y93" t="s">
-        <v>204</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94">
@@ -34543,7 +37695,7 @@
         <v>296</v>
       </c>
       <c r="Y94" t="s">
-        <v>442</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
@@ -34551,7 +37703,7 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s">
-        <v>450</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
@@ -34559,7 +37711,7 @@
         <v>278</v>
       </c>
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
@@ -34567,166 +37719,186 @@
         <v>279</v>
       </c>
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>207</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>524</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>527</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>384</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>457</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>166</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>565</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28540" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29096" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1770,13 +1770,19 @@
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="900" x14ac:knownFonts="1">
+  <fonts count="916" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7449,8 +7455,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1561">
+  <fills count="1588">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16292,8 +16399,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1635">
+  <borders count="1667">
     <border>
       <left/>
       <right/>
@@ -29689,6 +29949,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -32808,7 +33394,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="927">
+  <cellXfs count="943">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35560,52 +36146,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1533" fontId="883" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="884" fillId="1536" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1610" fillId="1536" fontId="884" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="885" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="886" fillId="1539" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1539" fontId="886" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="887" fillId="1542" borderId="1618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1618" fillId="1542" fontId="887" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="888" fillId="1545" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1545" fontId="888" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="889" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="890" fillId="1548" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1548" fontId="890" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="891" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="891" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="892" fillId="1551" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1551" fontId="892" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="893" fillId="1542" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1542" fontId="893" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="894" fillId="1554" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1554" fontId="894" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="895" fillId="1554" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1554" fontId="895" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="896" fillId="1545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1545" fontId="896" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="897" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1557" fontId="897" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="898" fillId="1545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1545" fontId="898" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="899" fillId="1560" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="899" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="1563" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1566" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="1569" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="1572" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="1578" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="1569" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="1581" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="1581" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36341,7 +36975,7 @@
         <v>452</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>567</v>
       </c>
       <c r="H5" t="s">
         <v>470</v>
@@ -36415,7 +37049,7 @@
         <v>520</v>
       </c>
       <c r="G6" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
         <v>462</v>
@@ -36477,7 +37111,7 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="H7" t="s">
         <v>461</v>
@@ -36539,7 +37173,7 @@
         <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
         <v>329</v>
@@ -36595,7 +37229,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
         <v>330</v>
@@ -36639,7 +37273,7 @@
         <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
         <v>466</v>
@@ -36680,7 +37314,7 @@
         <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>323</v>
@@ -36718,7 +37352,7 @@
         <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>324</v>
@@ -36756,7 +37390,7 @@
         <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
         <v>325</v>
@@ -36791,7 +37425,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>326</v>
@@ -36826,7 +37460,7 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
         <v>523</v>
@@ -36858,7 +37492,7 @@
         <v>393</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K16" t="s">
         <v>82</v>
@@ -36890,7 +37524,7 @@
         <v>394</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
         <v>83</v>
@@ -36916,7 +37550,7 @@
         <v>426</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>471</v>
@@ -36939,7 +37573,7 @@
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -36959,7 +37593,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -36979,7 +37613,7 @@
         <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21" t="s">
         <v>381</v>
@@ -36999,7 +37633,7 @@
         <v>558</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
         <v>488</v>
@@ -37019,7 +37653,7 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -37039,7 +37673,7 @@
         <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
         <v>400</v>
@@ -37059,7 +37693,7 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
         <v>541</v>
@@ -37079,7 +37713,7 @@
         <v>463</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>86</v>
@@ -37099,7 +37733,7 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
         <v>453</v>
@@ -37119,7 +37753,7 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -37136,7 +37770,7 @@
         <v>486</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -37153,7 +37787,7 @@
         <v>487</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
         <v>116</v>
@@ -37164,7 +37798,7 @@
         <v>427</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s">
         <v>117</v>
@@ -37175,7 +37809,7 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
         <v>118</v>
@@ -37186,7 +37820,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>525</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
         <v>119</v>
@@ -37197,7 +37831,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>525</v>
       </c>
       <c r="Y34" t="s">
         <v>564</v>
@@ -37208,7 +37842,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s">
         <v>120</v>
@@ -37219,7 +37853,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
         <v>121</v>
@@ -37230,7 +37864,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
         <v>211</v>
@@ -37241,7 +37875,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="Y38" t="s">
         <v>122</v>
@@ -37252,7 +37886,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
         <v>339</v>
@@ -37260,7 +37894,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s">
         <v>440</v>
@@ -37268,7 +37902,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
         <v>545</v>
@@ -37276,7 +37910,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>560</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
         <v>401</v>
@@ -37284,7 +37918,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="Y43" t="s">
         <v>123</v>
@@ -37292,7 +37926,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Y44" t="s">
         <v>124</v>
@@ -37300,7 +37934,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y45" t="s">
         <v>125</v>
@@ -37308,7 +37942,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Y46" t="s">
         <v>126</v>
@@ -37316,7 +37950,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s">
         <v>127</v>
@@ -37324,7 +37958,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s">
         <v>128</v>
@@ -37332,7 +37966,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
         <v>455</v>
@@ -37340,7 +37974,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Y50" t="s">
         <v>214</v>
@@ -37348,7 +37982,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Y51" t="s">
         <v>78</v>
@@ -37356,7 +37990,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s">
         <v>550</v>
@@ -37364,7 +37998,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Y53" t="s">
         <v>129</v>
@@ -37372,7 +38006,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Y54" t="s">
         <v>130</v>
@@ -37380,7 +38014,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Y55" t="s">
         <v>131</v>
@@ -37388,7 +38022,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Y56" t="s">
         <v>501</v>
@@ -37396,7 +38030,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y57" t="s">
         <v>481</v>
@@ -37404,7 +38038,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>561</v>
+        <v>294</v>
       </c>
       <c r="Y58" t="s">
         <v>132</v>
@@ -37412,7 +38046,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>561</v>
       </c>
       <c r="Y59" t="s">
         <v>347</v>
@@ -37420,7 +38054,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s">
         <v>474</v>
@@ -37428,7 +38062,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Y61" t="s">
         <v>133</v>
@@ -37436,7 +38070,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Y62" t="s">
         <v>134</v>
@@ -37444,7 +38078,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Y63" t="s">
         <v>135</v>
@@ -37452,7 +38086,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y64" t="s">
         <v>136</v>
@@ -37460,7 +38094,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="Y65" t="s">
         <v>137</v>
@@ -37468,7 +38102,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y66" t="s">
         <v>138</v>
@@ -37476,7 +38110,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="Y67" t="s">
         <v>139</v>
@@ -37484,7 +38118,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="Y68" t="s">
         <v>451</v>
@@ -37492,7 +38126,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="Y69" t="s">
         <v>491</v>
@@ -37500,7 +38134,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>546</v>
+        <v>270</v>
       </c>
       <c r="Y70" t="s">
         <v>215</v>
@@ -37508,7 +38142,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>315</v>
+        <v>546</v>
       </c>
       <c r="Y71" t="s">
         <v>397</v>
@@ -37516,7 +38150,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>421</v>
+        <v>315</v>
       </c>
       <c r="Y72" t="s">
         <v>456</v>
@@ -37524,7 +38158,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="Y73" t="s">
         <v>140</v>
@@ -37532,7 +38166,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="Y74" t="s">
         <v>141</v>
@@ -37540,7 +38174,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="Y75" t="s">
         <v>142</v>
@@ -37548,7 +38182,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>526</v>
+        <v>263</v>
       </c>
       <c r="Y76" t="s">
         <v>143</v>
@@ -37556,7 +38190,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>345</v>
+        <v>526</v>
       </c>
       <c r="Y77" t="s">
         <v>198</v>
@@ -37564,7 +38198,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="Y78" t="s">
         <v>199</v>
@@ -37572,7 +38206,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y79" t="s">
         <v>469</v>
@@ -37580,7 +38214,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Y80" t="s">
         <v>485</v>
@@ -37588,7 +38222,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>428</v>
+        <v>292</v>
       </c>
       <c r="Y81" t="s">
         <v>144</v>
@@ -37596,7 +38230,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>333</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
         <v>145</v>
@@ -37604,7 +38238,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Y83" t="s">
         <v>146</v>
@@ -37612,7 +38246,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Y84" t="s">
         <v>513</v>
@@ -37620,7 +38254,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y85" t="s">
         <v>147</v>
@@ -37628,7 +38262,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Y86" t="s">
         <v>148</v>
@@ -37636,7 +38270,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>547</v>
+        <v>277</v>
       </c>
       <c r="Y87" t="s">
         <v>200</v>
@@ -37644,7 +38278,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>547</v>
       </c>
       <c r="Y88" t="s">
         <v>502</v>
@@ -37652,7 +38286,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
         <v>201</v>
@@ -37660,7 +38294,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y90" t="s">
         <v>468</v>
@@ -37668,7 +38302,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y91" t="s">
         <v>202</v>
@@ -37676,7 +38310,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y92" t="s">
         <v>203</v>
@@ -37684,15 +38318,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y93" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y94" t="s">
         <v>216</v>
@@ -37700,7 +38334,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y95" t="s">
         <v>149</v>
@@ -37708,7 +38342,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s">
         <v>204</v>
@@ -37716,13 +38350,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y97" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>279</v>
+      </c>
       <c r="Y98" t="s">
         <v>450</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29096" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29653" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1776,13 +1776,16 @@
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="916" x14ac:knownFonts="1">
+  <fonts count="932" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7556,8 +7559,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1588">
+  <fills count="1615">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16552,8 +16656,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1667">
+  <borders count="1699">
     <border>
       <left/>
       <right/>
@@ -29949,6 +30206,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33394,7 +33977,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="943">
+  <cellXfs count="959">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36194,52 +36777,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="899" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="900" fillId="1563" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1563" fontId="900" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="901" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="902" fillId="1566" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1566" fontId="902" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="903" fillId="1569" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1650" fillId="1569" fontId="903" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="904" fillId="1572" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1572" fontId="904" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="905" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="906" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1575" fontId="906" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="907" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="908" fillId="1578" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1578" fontId="908" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="909" fillId="1569" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1569" fontId="909" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="910" fillId="1581" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1581" fontId="910" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="911" fillId="1581" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1581" fontId="911" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="912" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="912" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="913" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="913" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="914" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="914" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="915" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="915" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="1590" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="1593" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="1596" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="1599" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="1602" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1605" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1596" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1608" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1608" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36594,7 +37225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -38329,7 +38960,7 @@
         <v>312</v>
       </c>
       <c r="Y94" t="s">
-        <v>216</v>
+        <v>569</v>
       </c>
     </row>
     <row r="95">
@@ -38337,7 +38968,7 @@
         <v>296</v>
       </c>
       <c r="Y95" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
@@ -38345,7 +38976,7 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
@@ -38353,7 +38984,7 @@
         <v>278</v>
       </c>
       <c r="Y97" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
@@ -38361,181 +38992,186 @@
         <v>279</v>
       </c>
       <c r="Y98" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>524</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>527</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>528</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>384</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>457</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>565</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,41 +19,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29653" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30214" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1779,13 +1780,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="932" x14ac:knownFonts="1">
+  <fonts count="948" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7660,8 +7679,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1615">
+  <fills count="1642">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16809,8 +16929,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1699">
+  <borders count="1731">
     <border>
       <left/>
       <right/>
@@ -30206,6 +30479,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33977,7 +34576,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="959">
+  <cellXfs count="975">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36825,52 +37424,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="915" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="916" fillId="1590" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1674" fillId="1590" fontId="916" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="917" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="917" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="918" fillId="1593" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1593" fontId="918" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="919" fillId="1596" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1682" fillId="1596" fontId="919" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="920" fillId="1599" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1686" fillId="1599" fontId="920" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="921" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="922" fillId="1602" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1602" fontId="922" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="923" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="923" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="924" fillId="1605" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1690" fillId="1605" fontId="924" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="925" fillId="1596" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1596" fontId="925" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="926" fillId="1608" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1608" fontId="926" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="927" fillId="1608" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1608" fontId="927" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="928" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="928" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="929" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1611" fontId="929" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="930" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="930" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="931" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="931" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="1617" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="1620" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="1623" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="1626" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1632" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1623" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="1635" borderId="1730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="1635" borderId="1730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="1641" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37225,7 +37872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -37250,81 +37897,84 @@
         <v>503</v>
       </c>
       <c r="E1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>529</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>494</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>423</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>424</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>358</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>407</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>425</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -37342,81 +37992,84 @@
         <v>504</v>
       </c>
       <c r="E2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>464</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>484</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>316</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>392</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>429</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>530</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>497</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>430</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>431</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>254</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>218</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>412</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>435</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>436</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>382</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>408</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>444</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>508</v>
       </c>
     </row>
@@ -37433,76 +38086,76 @@
       <c r="D3" t="s">
         <v>540</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>472</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>366</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>495</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>350</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>342</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>335</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>531</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>498</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>432</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>241</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>219</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>413</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>437</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>383</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -37516,82 +38169,82 @@
       <c r="D4" t="s">
         <v>505</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>395</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>465</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>496</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>351</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>239</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>336</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>532</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>499</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>242</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>220</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>414</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>438</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>445</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>570</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -37599,73 +38252,73 @@
       <c r="D5" t="s">
         <v>506</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>473</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>452</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>567</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>470</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>544</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>352</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>478</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>542</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>243</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>415</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>439</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
-        <v>356</v>
+      <c r="Z5" t="s">
+        <v>573</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>446</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -37673,1505 +38326,1513 @@
       <c r="D6" t="s">
         <v>507</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>520</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>337</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>462</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>349</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>536</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>399</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>416</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>458</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>447</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>396</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>461</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>548</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>537</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>434</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>417</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>459</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>448</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>319</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>367</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>329</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>521</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>538</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>246</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>418</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>449</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>368</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>330</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>543</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>247</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>419</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I10" t="s">
+        <v>466</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>533</v>
+      </c>
+      <c r="R10" t="s">
+        <v>433</v>
+      </c>
+      <c r="S10" t="s">
+        <v>248</v>
+      </c>
+      <c r="U10" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>348</v>
       </c>
-      <c r="E10" t="s">
-        <v>316</v>
+      <c r="F11" t="s">
+        <v>572</v>
       </c>
-      <c r="G10" t="s">
-        <v>307</v>
+      <c r="H11" t="s">
+        <v>353</v>
       </c>
-      <c r="H10" t="s">
-        <v>466</v>
+      <c r="I11" t="s">
+        <v>323</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
+      <c r="L11" t="s">
+        <v>522</v>
       </c>
-      <c r="M10" t="s">
-        <v>36</v>
+      <c r="N11" t="s">
+        <v>489</v>
       </c>
-      <c r="N10" t="s">
-        <v>533</v>
+      <c r="O11" t="s">
+        <v>534</v>
       </c>
-      <c r="Q10" t="s">
-        <v>433</v>
+      <c r="R11" t="s">
+        <v>94</v>
       </c>
-      <c r="R10" t="s">
-        <v>248</v>
+      <c r="S11" t="s">
+        <v>249</v>
       </c>
-      <c r="T10" t="s">
-        <v>420</v>
+      <c r="Z11" t="s">
+        <v>259</v>
       </c>
-      <c r="Y10" t="s">
-        <v>258</v>
+      <c r="AC11" t="s">
+        <v>260</v>
       </c>
-      <c r="AB10" t="s">
-        <v>191</v>
+      <c r="AE11" t="s">
+        <v>234</v>
       </c>
-      <c r="AD10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>256</v>
+      <c r="F12" t="s">
+        <v>320</v>
       </c>
-      <c r="G11" t="s">
-        <v>353</v>
+      <c r="H12" t="s">
+        <v>275</v>
       </c>
-      <c r="H11" t="s">
-        <v>323</v>
+      <c r="I12" t="s">
+        <v>324</v>
       </c>
-      <c r="K11" t="s">
-        <v>522</v>
+      <c r="L12" t="s">
+        <v>398</v>
       </c>
-      <c r="M11" t="s">
-        <v>489</v>
+      <c r="N12" t="s">
+        <v>549</v>
       </c>
-      <c r="N11" t="s">
-        <v>534</v>
+      <c r="O12" t="s">
+        <v>535</v>
       </c>
-      <c r="Q11" t="s">
-        <v>94</v>
+      <c r="R12" t="s">
+        <v>41</v>
       </c>
-      <c r="R11" t="s">
-        <v>249</v>
+      <c r="S12" t="s">
+        <v>250</v>
       </c>
-      <c r="Y11" t="s">
-        <v>259</v>
+      <c r="Z12" t="s">
+        <v>103</v>
       </c>
-      <c r="AB11" t="s">
-        <v>260</v>
+      <c r="AC12" t="s">
+        <v>192</v>
       </c>
-      <c r="AD11" t="s">
-        <v>234</v>
+      <c r="AE12" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>334</v>
       </c>
-      <c r="E12" t="s">
-        <v>320</v>
+      <c r="F13" t="s">
+        <v>342</v>
       </c>
-      <c r="G12" t="s">
-        <v>275</v>
+      <c r="H13" t="s">
+        <v>264</v>
       </c>
-      <c r="H12" t="s">
-        <v>324</v>
+      <c r="I13" t="s">
+        <v>325</v>
       </c>
-      <c r="K12" t="s">
-        <v>398</v>
+      <c r="L13" t="s">
+        <v>17</v>
       </c>
-      <c r="M12" t="s">
-        <v>549</v>
+      <c r="N13" t="s">
+        <v>454</v>
       </c>
-      <c r="N12" t="s">
-        <v>535</v>
+      <c r="R13" t="s">
+        <v>95</v>
       </c>
-      <c r="Q12" t="s">
-        <v>41</v>
+      <c r="S13" t="s">
+        <v>255</v>
       </c>
-      <c r="R12" t="s">
-        <v>250</v>
+      <c r="Z13" t="s">
+        <v>327</v>
       </c>
-      <c r="Y12" t="s">
-        <v>103</v>
+      <c r="AC13" t="s">
+        <v>193</v>
       </c>
-      <c r="AB12" t="s">
-        <v>192</v>
+      <c r="AE13" t="s">
+        <v>492</v>
       </c>
-      <c r="AD12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>342</v>
+      <c r="F14" t="s">
+        <v>37</v>
       </c>
-      <c r="G13" t="s">
-        <v>264</v>
+      <c r="H14" t="s">
+        <v>317</v>
       </c>
-      <c r="H13" t="s">
-        <v>325</v>
+      <c r="I14" t="s">
+        <v>326</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
+      <c r="L14" t="s">
+        <v>42</v>
       </c>
-      <c r="M13" t="s">
-        <v>454</v>
+      <c r="N14" t="s">
+        <v>490</v>
       </c>
-      <c r="Q13" t="s">
-        <v>95</v>
+      <c r="R14" t="s">
+        <v>96</v>
       </c>
-      <c r="R13" t="s">
-        <v>255</v>
+      <c r="S14" t="s">
+        <v>251</v>
       </c>
-      <c r="Y13" t="s">
-        <v>327</v>
+      <c r="Z14" t="s">
+        <v>104</v>
       </c>
-      <c r="AB13" t="s">
-        <v>193</v>
+      <c r="AC14" t="s">
+        <v>194</v>
       </c>
-      <c r="AD13" t="s">
-        <v>492</v>
+      <c r="AE14" t="s">
+        <v>509</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>529</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
+      <c r="F15" t="s">
+        <v>60</v>
       </c>
-      <c r="G14" t="s">
-        <v>317</v>
+      <c r="H15" t="s">
+        <v>265</v>
       </c>
-      <c r="H14" t="s">
-        <v>326</v>
+      <c r="L15" t="s">
+        <v>523</v>
       </c>
-      <c r="K14" t="s">
-        <v>42</v>
+      <c r="N15" t="s">
+        <v>39</v>
       </c>
-      <c r="M14" t="s">
-        <v>490</v>
+      <c r="R15" t="s">
+        <v>517</v>
       </c>
-      <c r="Q14" t="s">
-        <v>96</v>
+      <c r="S15" t="s">
+        <v>252</v>
       </c>
-      <c r="R14" t="s">
-        <v>251</v>
+      <c r="Z15" t="s">
+        <v>105</v>
       </c>
-      <c r="Y14" t="s">
-        <v>104</v>
+      <c r="AC15" t="s">
+        <v>195</v>
       </c>
-      <c r="AB14" t="s">
-        <v>194</v>
+      <c r="AE15" t="s">
+        <v>510</v>
       </c>
-      <c r="AD14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>494</v>
       </c>
-      <c r="E15" t="s">
-        <v>60</v>
+      <c r="F16" t="s">
+        <v>393</v>
       </c>
-      <c r="G15" t="s">
-        <v>265</v>
+      <c r="H16" t="s">
+        <v>266</v>
       </c>
-      <c r="K15" t="s">
-        <v>523</v>
+      <c r="L16" t="s">
+        <v>82</v>
       </c>
-      <c r="M15" t="s">
-        <v>39</v>
+      <c r="N16" t="s">
+        <v>562</v>
       </c>
-      <c r="Q15" t="s">
-        <v>517</v>
+      <c r="R16" t="s">
+        <v>518</v>
       </c>
-      <c r="R15" t="s">
-        <v>252</v>
+      <c r="S16" t="s">
+        <v>253</v>
       </c>
-      <c r="Y15" t="s">
-        <v>105</v>
+      <c r="Z16" t="s">
+        <v>76</v>
       </c>
-      <c r="AB15" t="s">
-        <v>195</v>
+      <c r="AC16" t="s">
+        <v>196</v>
       </c>
-      <c r="AD15" t="s">
-        <v>510</v>
+      <c r="AE16" t="s">
+        <v>514</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>197</v>
       </c>
-      <c r="E16" t="s">
-        <v>393</v>
+      <c r="F17" t="s">
+        <v>394</v>
       </c>
-      <c r="G16" t="s">
-        <v>266</v>
+      <c r="H17" t="s">
+        <v>318</v>
       </c>
-      <c r="K16" t="s">
-        <v>82</v>
+      <c r="L17" t="s">
+        <v>83</v>
       </c>
-      <c r="M16" t="s">
-        <v>562</v>
+      <c r="N17" t="s">
+        <v>40</v>
       </c>
-      <c r="Q16" t="s">
-        <v>518</v>
+      <c r="Z17" t="s">
+        <v>519</v>
       </c>
-      <c r="R16" t="s">
-        <v>253</v>
+      <c r="AC17" t="s">
+        <v>479</v>
       </c>
-      <c r="Y16" t="s">
-        <v>76</v>
+      <c r="AE17" t="s">
+        <v>515</v>
       </c>
-      <c r="AB16" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
-        <v>394</v>
+      <c r="F18" t="s">
+        <v>426</v>
       </c>
-      <c r="G17" t="s">
-        <v>318</v>
+      <c r="H18" t="s">
+        <v>90</v>
       </c>
-      <c r="K17" t="s">
-        <v>83</v>
+      <c r="L18" t="s">
+        <v>471</v>
       </c>
-      <c r="M17" t="s">
-        <v>40</v>
+      <c r="N18" t="s">
+        <v>43</v>
       </c>
-      <c r="Y17" t="s">
-        <v>519</v>
+      <c r="Z18" t="s">
+        <v>106</v>
       </c>
-      <c r="AB17" t="s">
-        <v>479</v>
+      <c r="AE18" t="s">
+        <v>493</v>
       </c>
-      <c r="AD17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>240</v>
       </c>
-      <c r="E18" t="s">
-        <v>426</v>
+      <c r="F19" t="s">
+        <v>61</v>
       </c>
-      <c r="G18" t="s">
-        <v>90</v>
+      <c r="H19" t="s">
+        <v>91</v>
       </c>
-      <c r="K18" t="s">
-        <v>471</v>
+      <c r="L19" t="s">
+        <v>84</v>
       </c>
-      <c r="M18" t="s">
-        <v>43</v>
+      <c r="Z19" t="s">
+        <v>107</v>
       </c>
-      <c r="Y18" t="s">
-        <v>106</v>
+      <c r="AE19" t="s">
+        <v>511</v>
       </c>
-      <c r="AD18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
-        <v>61</v>
+      <c r="F20" t="s">
+        <v>62</v>
       </c>
-      <c r="G19" t="s">
-        <v>91</v>
+      <c r="H20" t="s">
+        <v>297</v>
       </c>
-      <c r="K19" t="s">
-        <v>84</v>
+      <c r="L20" t="s">
+        <v>85</v>
       </c>
-      <c r="Y19" t="s">
-        <v>107</v>
+      <c r="Z20" t="s">
+        <v>108</v>
       </c>
-      <c r="AD19" t="s">
-        <v>511</v>
+      <c r="AE20" t="s">
+        <v>512</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>411</v>
       </c>
-      <c r="E20" t="s">
-        <v>62</v>
+      <c r="F21" t="s">
+        <v>257</v>
       </c>
-      <c r="G20" t="s">
-        <v>297</v>
+      <c r="H21" t="s">
+        <v>298</v>
       </c>
-      <c r="K20" t="s">
-        <v>85</v>
+      <c r="L21" t="s">
+        <v>381</v>
       </c>
-      <c r="Y20" t="s">
-        <v>108</v>
+      <c r="Z21" t="s">
+        <v>109</v>
       </c>
-      <c r="AD20" t="s">
-        <v>512</v>
+      <c r="AE21" t="s">
+        <v>516</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>423</v>
       </c>
-      <c r="E21" t="s">
-        <v>257</v>
+      <c r="F22" t="s">
+        <v>558</v>
       </c>
-      <c r="G21" t="s">
-        <v>298</v>
+      <c r="H22" t="s">
+        <v>299</v>
       </c>
-      <c r="K21" t="s">
-        <v>381</v>
+      <c r="L22" t="s">
+        <v>488</v>
       </c>
-      <c r="Y21" t="s">
-        <v>109</v>
+      <c r="Z22" t="s">
+        <v>500</v>
       </c>
-      <c r="AD21" t="s">
-        <v>516</v>
+      <c r="AE22" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>424</v>
       </c>
-      <c r="E22" t="s">
-        <v>558</v>
+      <c r="F23" t="s">
+        <v>63</v>
       </c>
-      <c r="G22" t="s">
-        <v>299</v>
+      <c r="H23" t="s">
+        <v>300</v>
       </c>
-      <c r="K22" t="s">
-        <v>488</v>
+      <c r="L23" t="s">
+        <v>44</v>
       </c>
-      <c r="Y22" t="s">
-        <v>500</v>
+      <c r="Z23" t="s">
+        <v>111</v>
       </c>
-      <c r="AD22" t="s">
-        <v>236</v>
+      <c r="AE23" t="s">
+        <v>554</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>358</v>
       </c>
-      <c r="E23" t="s">
-        <v>63</v>
+      <c r="F24" t="s">
+        <v>322</v>
       </c>
-      <c r="G23" t="s">
-        <v>300</v>
+      <c r="H24" t="s">
+        <v>291</v>
       </c>
-      <c r="K23" t="s">
-        <v>44</v>
+      <c r="L24" t="s">
+        <v>400</v>
       </c>
-      <c r="Y23" t="s">
-        <v>111</v>
+      <c r="Z24" t="s">
+        <v>563</v>
       </c>
-      <c r="AD23" t="s">
-        <v>554</v>
+      <c r="AE24" t="s">
+        <v>555</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>407</v>
       </c>
-      <c r="E24" t="s">
-        <v>322</v>
+      <c r="F25" t="s">
+        <v>64</v>
       </c>
-      <c r="G24" t="s">
-        <v>291</v>
+      <c r="H25" t="s">
+        <v>280</v>
       </c>
-      <c r="K24" t="s">
-        <v>400</v>
+      <c r="L25" t="s">
+        <v>541</v>
       </c>
-      <c r="Y24" t="s">
-        <v>563</v>
+      <c r="Z25" t="s">
+        <v>112</v>
       </c>
-      <c r="AD24" t="s">
-        <v>555</v>
+      <c r="AE25" t="s">
+        <v>556</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="E25" t="s">
-        <v>64</v>
+      <c r="F26" t="s">
+        <v>463</v>
       </c>
-      <c r="G25" t="s">
-        <v>280</v>
+      <c r="H26" t="s">
+        <v>77</v>
       </c>
-      <c r="K25" t="s">
-        <v>541</v>
+      <c r="L26" t="s">
+        <v>86</v>
       </c>
-      <c r="Y25" t="s">
-        <v>112</v>
+      <c r="Z26" t="s">
+        <v>113</v>
       </c>
-      <c r="AD25" t="s">
-        <v>556</v>
+      <c r="AE26" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="E26" t="s">
-        <v>463</v>
+      <c r="F27" t="s">
+        <v>226</v>
       </c>
-      <c r="G26" t="s">
-        <v>77</v>
+      <c r="H27" t="s">
+        <v>283</v>
       </c>
-      <c r="K26" t="s">
-        <v>86</v>
+      <c r="L27" t="s">
+        <v>453</v>
       </c>
-      <c r="Y26" t="s">
-        <v>113</v>
+      <c r="Z27" t="s">
+        <v>114</v>
       </c>
-      <c r="AD26" t="s">
-        <v>237</v>
+      <c r="AE27" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="E27" t="s">
-        <v>226</v>
+      <c r="F28" t="s">
+        <v>227</v>
       </c>
-      <c r="G27" t="s">
-        <v>283</v>
+      <c r="H28" t="s">
+        <v>267</v>
       </c>
-      <c r="K27" t="s">
-        <v>453</v>
+      <c r="L28" t="s">
+        <v>45</v>
       </c>
-      <c r="Y27" t="s">
-        <v>114</v>
+      <c r="Z28" t="s">
+        <v>115</v>
       </c>
-      <c r="AD27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="E28" t="s">
-        <v>227</v>
+      <c r="F29" t="s">
+        <v>486</v>
       </c>
-      <c r="G28" t="s">
-        <v>267</v>
+      <c r="H29" t="s">
+        <v>284</v>
       </c>
-      <c r="K28" t="s">
-        <v>45</v>
+      <c r="L29" t="s">
+        <v>46</v>
       </c>
-      <c r="Y28" t="s">
-        <v>115</v>
+      <c r="Z29" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
+    <row r="30">
+      <c r="A30" t="s">
         <v>425</v>
       </c>
-      <c r="E29" t="s">
-        <v>486</v>
+      <c r="F30" t="s">
+        <v>487</v>
       </c>
-      <c r="G29" t="s">
-        <v>284</v>
+      <c r="H30" t="s">
+        <v>285</v>
       </c>
-      <c r="K29" t="s">
-        <v>46</v>
+      <c r="Z30" t="s">
+        <v>116</v>
       </c>
-      <c r="Y29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
-        <v>487</v>
-      </c>
-      <c r="G30" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>427</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>276</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>286</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>525</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>261</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>331</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>262</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Y41" t="s">
-        <v>545</v>
+      <c r="Z41" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>560</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>561</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>546</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>421</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>422</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>526</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>547</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30214" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30775" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1804,7 +1804,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="948" x14ac:knownFonts="1">
+  <fonts count="964" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7780,8 +7780,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1642">
+  <fills count="1669">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17082,8 +17183,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1731">
+  <borders count="1763">
     <border>
       <left/>
       <right/>
@@ -30479,6 +30733,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34576,7 +35156,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="975">
+  <cellXfs count="991">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37472,52 +38052,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="931" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="932" fillId="1617" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1706" fillId="1617" fontId="932" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="933" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="934" fillId="1620" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1620" fontId="934" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="935" fillId="1623" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1714" fillId="1623" fontId="935" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="936" fillId="1626" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1718" fillId="1626" fontId="936" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="937" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="938" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1629" fontId="938" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="939" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="939" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="940" fillId="1632" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1722" fillId="1632" fontId="940" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="941" fillId="1623" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1623" fontId="941" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="942" fillId="1635" borderId="1730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1730" fillId="1635" fontId="942" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="943" fillId="1635" borderId="1730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1730" fillId="1635" fontId="943" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="944" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="944" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="945" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1638" fontId="945" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="946" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="946" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="947" fillId="1641" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="947" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="1644" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="1647" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1650" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="1653" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="1656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="1659" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1650" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="1662" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="1662" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30775" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31899" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1798,13 +1798,19 @@
   <si>
     <t>screenshot(file,locator)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="964" x14ac:knownFonts="1">
+  <fonts count="996" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7881,8 +7887,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1669">
+  <fills count="1723">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17336,8 +17544,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1763">
+  <borders count="1827">
     <border>
       <left/>
       <right/>
@@ -30733,6 +31247,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -35156,7 +36322,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="991">
+  <cellXfs count="1023">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38100,52 +39266,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="947" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="948" fillId="1644" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1738" fillId="1644" fontId="948" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="949" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="949" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="950" fillId="1647" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1742" fillId="1647" fontId="950" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="951" fillId="1650" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1746" fillId="1650" fontId="951" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="952" fillId="1653" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1750" fillId="1653" fontId="952" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="953" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="954" fillId="1656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1656" fontId="954" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="955" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="955" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="956" fillId="1659" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1754" fillId="1659" fontId="956" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="957" fillId="1650" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1758" fillId="1650" fontId="957" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="958" fillId="1662" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1762" fillId="1662" fontId="958" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="959" fillId="1662" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1762" fillId="1662" fontId="959" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="960" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="960" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="961" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1665" fontId="961" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="962" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="962" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="963" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1668" fontId="963" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1770" fillId="1671" fontId="964" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="965" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1774" fillId="1674" fontId="966" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1778" fillId="1677" fontId="967" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1782" fillId="1680" fontId="968" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="969" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1683" fontId="970" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="971" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1786" fillId="1686" fontId="972" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1790" fillId="1677" fontId="973" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1794" fillId="1689" fontId="974" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1794" fillId="1689" fontId="975" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="976" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1692" fontId="977" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="978" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1695" fontId="979" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="1698" borderId="1802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="1701" borderId="1806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="1704" borderId="1810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="1707" borderId="1814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="1710" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="1713" borderId="1818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="1704" borderId="1822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="1716" borderId="1826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="1716" borderId="1826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="1707" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="1719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="1707" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="995" fillId="1722" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -39459,7 +40721,7 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>426</v>
+        <v>576</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
@@ -39482,7 +40744,7 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>426</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -39502,7 +40764,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
@@ -39522,13 +40784,13 @@
         <v>411</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>381</v>
+        <v>577</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -39542,7 +40804,7 @@
         <v>423</v>
       </c>
       <c r="F22" t="s">
-        <v>558</v>
+        <v>257</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
@@ -39562,7 +40824,7 @@
         <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
@@ -39582,7 +40844,7 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
@@ -39602,7 +40864,7 @@
         <v>407</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
@@ -39622,7 +40884,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>463</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -39642,7 +40904,7 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>463</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
@@ -39662,7 +40924,7 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
@@ -39679,7 +40941,7 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
@@ -39696,7 +40958,7 @@
         <v>425</v>
       </c>
       <c r="F30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
@@ -39710,7 +40972,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -39721,7 +40983,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>65</v>
+        <v>427</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -39732,7 +40994,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -39743,7 +41005,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>525</v>
@@ -39754,7 +41016,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -39765,7 +41027,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -39776,7 +41038,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -39787,7 +41049,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -39798,7 +41060,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -39808,6 +41070,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -19,15 +19,15 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31899" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32464" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1804,13 +1804,28 @@
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="996" x14ac:knownFonts="1">
+  <fonts count="1012" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8089,8 +8104,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1723">
+  <fills count="1750">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17850,8 +17966,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1827">
+  <borders count="1859">
     <border>
       <left/>
       <right/>
@@ -31247,6 +31516,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -36322,7 +36917,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1023">
+  <cellXfs count="1039">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39362,52 +39957,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1695" fontId="979" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="980" fillId="1698" borderId="1802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1802" fillId="1698" fontId="980" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="981" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="981" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="982" fillId="1701" borderId="1806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1806" fillId="1701" fontId="982" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="983" fillId="1704" borderId="1810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1810" fillId="1704" fontId="983" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="984" fillId="1707" borderId="1814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1814" fillId="1707" fontId="984" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="985" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="985" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="986" fillId="1710" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1710" fontId="986" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="987" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="987" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="988" fillId="1713" borderId="1818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1818" fillId="1713" fontId="988" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="989" fillId="1704" borderId="1822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1822" fillId="1704" fontId="989" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="990" fillId="1716" borderId="1826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1826" fillId="1716" fontId="990" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="991" fillId="1716" borderId="1826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1826" fillId="1716" fontId="991" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="992" fillId="1707" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="992" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="993" fillId="1719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1719" fontId="993" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="994" fillId="1707" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="994" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="995" fillId="1722" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1722" fontId="995" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="1725" borderId="1834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="997" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="1728" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="1731" borderId="1842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="1734" borderId="1846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1001" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="1737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1003" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="1740" borderId="1850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="1731" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="1743" borderId="1858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="1743" borderId="1858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="1746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="1749" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -39762,7 +40405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -40078,7 +40721,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>579</v>
       </c>
       <c r="M4" t="s">
         <v>336</v>
@@ -40114,7 +40757,7 @@
         <v>410</v>
       </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>580</v>
       </c>
       <c r="AA4" t="s">
         <v>174</v>
@@ -40161,7 +40804,7 @@
         <v>352</v>
       </c>
       <c r="L5" t="s">
-        <v>478</v>
+        <v>239</v>
       </c>
       <c r="N5" t="s">
         <v>88</v>
@@ -40228,11 +40871,14 @@
       <c r="I6" t="s">
         <v>462</v>
       </c>
+      <c r="J6" t="s">
+        <v>578</v>
+      </c>
       <c r="K6" t="s">
         <v>349</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>478</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -40294,7 +40940,7 @@
         <v>548</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>316</v>
@@ -40353,7 +40999,7 @@
         <v>329</v>
       </c>
       <c r="L8" t="s">
-        <v>521</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -40409,7 +41055,7 @@
         <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -40453,7 +41099,7 @@
         <v>466</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -40494,7 +41140,7 @@
         <v>323</v>
       </c>
       <c r="L11" t="s">
-        <v>522</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
         <v>489</v>
@@ -40532,7 +41178,7 @@
         <v>324</v>
       </c>
       <c r="L12" t="s">
-        <v>398</v>
+        <v>522</v>
       </c>
       <c r="N12" t="s">
         <v>549</v>
@@ -40570,7 +41216,7 @@
         <v>325</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="N13" t="s">
         <v>454</v>
@@ -40605,7 +41251,7 @@
         <v>326</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>490</v>
@@ -40637,7 +41283,7 @@
         <v>265</v>
       </c>
       <c r="L15" t="s">
-        <v>523</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -40669,7 +41315,7 @@
         <v>266</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>523</v>
       </c>
       <c r="N16" t="s">
         <v>562</v>
@@ -40701,7 +41347,7 @@
         <v>318</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -40721,13 +41367,13 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>576</v>
+        <v>426</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>471</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
@@ -40744,13 +41390,13 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>426</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>471</v>
       </c>
       <c r="Z19" t="s">
         <v>107</v>
@@ -40764,13 +41410,13 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z20" t="s">
         <v>108</v>
@@ -40784,13 +41430,13 @@
         <v>411</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>577</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -40804,13 +41450,13 @@
         <v>423</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>558</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
       </c>
       <c r="L22" t="s">
-        <v>488</v>
+        <v>577</v>
       </c>
       <c r="Z22" t="s">
         <v>500</v>
@@ -40824,13 +41470,13 @@
         <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>558</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>488</v>
       </c>
       <c r="Z23" t="s">
         <v>111</v>
@@ -40844,13 +41490,13 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
       </c>
       <c r="L24" t="s">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
         <v>563</v>
@@ -40864,13 +41510,13 @@
         <v>407</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>541</v>
+        <v>400</v>
       </c>
       <c r="Z25" t="s">
         <v>112</v>
@@ -40884,13 +41530,13 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>463</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>541</v>
       </c>
       <c r="Z26" t="s">
         <v>113</v>
@@ -40904,13 +41550,13 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>463</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="Z27" t="s">
         <v>114</v>
@@ -40924,13 +41570,13 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="Z28" t="s">
         <v>115</v>
@@ -40941,13 +41587,13 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>486</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s">
         <v>328</v>
@@ -40958,10 +41604,13 @@
         <v>425</v>
       </c>
       <c r="F30" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
       </c>
       <c r="Z30" t="s">
         <v>116</v>
@@ -40972,7 +41621,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -40983,7 +41632,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>427</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -40994,7 +41643,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -41005,7 +41654,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
         <v>525</v>
@@ -41016,7 +41665,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -41027,7 +41676,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -41038,7 +41687,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -41049,7 +41698,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -41060,7 +41709,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -41070,9 +41719,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
@@ -41546,186 +42192,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="Z100" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="Z101" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32464" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33029" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1825,7 +1825,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1012" x14ac:knownFonts="1">
+  <fonts count="1028" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8205,8 +8205,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1750">
+  <fills count="1777">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18119,8 +18220,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1859">
+  <borders count="1891">
     <border>
       <left/>
       <right/>
@@ -31516,6 +31770,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -36917,7 +37497,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1039">
+  <cellXfs count="1055">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40005,52 +40585,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1722" fontId="995" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="996" fillId="1725" borderId="1834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1834" fillId="1725" fontId="996" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="997" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="997" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="998" fillId="1728" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1838" fillId="1728" fontId="998" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="999" fillId="1731" borderId="1842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1842" fillId="1731" fontId="999" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1000" fillId="1734" borderId="1846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1846" fillId="1734" fontId="1000" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1001" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1001" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1002" fillId="1737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1737" fontId="1002" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1003" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1003" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1004" fillId="1740" borderId="1850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1850" fillId="1740" fontId="1004" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1005" fillId="1731" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1854" fillId="1731" fontId="1005" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1006" fillId="1743" borderId="1858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1858" fillId="1743" fontId="1006" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1007" fillId="1743" borderId="1858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1858" fillId="1743" fontId="1007" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1008" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1734" fontId="1008" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1009" fillId="1746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1746" fontId="1009" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1010" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1734" fontId="1010" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1011" fillId="1749" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1749" fontId="1011" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="1752" borderId="1866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="1755" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="1758" borderId="1874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="1761" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="1764" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="1767" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="1758" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="1770" borderId="1890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="1770" borderId="1890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="1773" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="1776" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33029" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34161" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1819,13 +1819,16 @@
   <si>
     <t>saveSelectedValue(var,locator)</t>
   </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1028" x14ac:knownFonts="1">
+  <fonts count="1060" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8306,8 +8309,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1777">
+  <fills count="1831">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18373,8 +18578,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1891">
+  <borders count="1955">
     <border>
       <left/>
       <right/>
@@ -31770,6 +32281,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -37497,7 +38660,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1055">
+  <cellXfs count="1087">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40633,52 +41796,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1749" fontId="1011" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1012" fillId="1752" borderId="1866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1866" fillId="1752" fontId="1012" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1013" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1013" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1014" fillId="1755" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1870" fillId="1755" fontId="1014" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1015" fillId="1758" borderId="1874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1874" fillId="1758" fontId="1015" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1016" fillId="1761" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1878" fillId="1761" fontId="1016" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1017" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1017" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1018" fillId="1764" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1764" fontId="1018" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1019" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1019" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1020" fillId="1767" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1882" fillId="1767" fontId="1020" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1021" fillId="1758" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1886" fillId="1758" fontId="1021" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1022" fillId="1770" borderId="1890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1890" fillId="1770" fontId="1022" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1023" fillId="1770" borderId="1890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1890" fillId="1770" fontId="1023" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1024" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1761" fontId="1024" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1025" fillId="1773" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1773" fontId="1025" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1026" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1761" fontId="1026" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1027" fillId="1776" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1776" fontId="1027" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1898" fillId="1779" fontId="1028" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1029" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1902" fillId="1782" fontId="1030" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1906" fillId="1785" fontId="1031" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1910" fillId="1788" fontId="1032" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1033" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1791" fontId="1034" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1035" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1914" fillId="1794" fontId="1036" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1918" fillId="1785" fontId="1037" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1922" fillId="1797" fontId="1038" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1922" fillId="1797" fontId="1039" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1788" fontId="1040" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1800" fontId="1041" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1788" fontId="1042" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1803" fontId="1043" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="1806" borderId="1930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="1809" borderId="1934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="1812" borderId="1938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="1815" borderId="1942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="1818" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="1821" borderId="1946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="1812" borderId="1950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="1824" borderId="1954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="1824" borderId="1954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="1815" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="1827" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="1815" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="1830" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -41033,7 +42292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -42743,7 +44002,7 @@
         <v>272</v>
       </c>
       <c r="Z89" t="s">
-        <v>201</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90">
@@ -42751,7 +44010,7 @@
         <v>289</v>
       </c>
       <c r="Z90" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -42759,7 +44018,7 @@
         <v>273</v>
       </c>
       <c r="Z91" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92">
@@ -42767,7 +44026,7 @@
         <v>274</v>
       </c>
       <c r="Z92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
@@ -42775,7 +44034,7 @@
         <v>306</v>
       </c>
       <c r="Z93" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94">
@@ -42783,7 +44042,7 @@
         <v>312</v>
       </c>
       <c r="Z94" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="95">
@@ -42791,7 +44050,7 @@
         <v>296</v>
       </c>
       <c r="Z95" t="s">
-        <v>216</v>
+        <v>569</v>
       </c>
     </row>
     <row r="96">
@@ -42799,7 +44058,7 @@
         <v>341</v>
       </c>
       <c r="Z96" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
@@ -42807,7 +44066,7 @@
         <v>278</v>
       </c>
       <c r="Z97" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
@@ -42815,201 +44074,206 @@
         <v>279</v>
       </c>
       <c r="Z98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="136">
-      <c r="Z136" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="137">
-      <c r="Z137" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34161" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34727" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1828,7 +1828,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1060" x14ac:knownFonts="1">
+  <fonts count="1076" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8511,8 +8511,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1831">
+  <fills count="1858">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18884,8 +18985,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1955">
+  <borders count="1987">
     <border>
       <left/>
       <right/>
@@ -32281,6 +32535,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -38660,7 +39240,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1087">
+  <cellXfs count="1103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41892,52 +42472,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1803" fontId="1043" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1044" fillId="1806" borderId="1930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1045" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1930" fillId="1806" fontId="1044" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1045" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1046" fillId="1809" borderId="1934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1934" fillId="1809" fontId="1046" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1047" fillId="1812" borderId="1938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1938" fillId="1812" fontId="1047" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1048" fillId="1815" borderId="1942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1942" fillId="1815" fontId="1048" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1049" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1049" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1050" fillId="1818" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1818" fontId="1050" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1051" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1052" fillId="1821" borderId="1946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1053" fillId="1812" borderId="1950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1054" fillId="1824" borderId="1954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1055" fillId="1824" borderId="1954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1056" fillId="1815" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1057" fillId="1827" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1058" fillId="1815" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1059" fillId="1830" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1051" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1946" fillId="1821" fontId="1052" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1950" fillId="1812" fontId="1053" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1954" fillId="1824" fontId="1054" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1954" fillId="1824" fontId="1055" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1815" fontId="1056" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1827" fontId="1057" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1815" fontId="1058" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1830" fontId="1059" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="1833" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="1836" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="1839" borderId="1970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="1842" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="1845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="1848" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="1839" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="1851" borderId="1986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="1851" borderId="1986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="1854" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="1857" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -35,7 +35,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -43,9 +43,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34727" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35303" uniqueCount="594">
   <si>
     <t>description</t>
   </si>
@@ -1822,13 +1822,43 @@
   <si>
     <t>saveBrowserVersion(var)</t>
   </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1076" x14ac:knownFonts="1">
+  <fonts count="1092" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8612,8 +8642,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1858">
+  <fills count="1885">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19138,8 +19269,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1987">
+  <borders count="2019">
     <border>
       <left/>
       <right/>
@@ -32535,6 +32819,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39240,7 +39850,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1103">
+  <cellXfs count="1119">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42520,52 +43130,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1830" fontId="1059" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1060" fillId="1833" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1061" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1962" fillId="1833" fontId="1060" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1061" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1062" fillId="1836" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1966" fillId="1836" fontId="1062" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1063" fillId="1839" borderId="1970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1970" fillId="1839" fontId="1063" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1064" fillId="1842" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1974" fillId="1842" fontId="1064" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1065" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1065" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1066" fillId="1845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1845" fontId="1066" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1067" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1068" fillId="1848" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1069" fillId="1839" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1070" fillId="1851" borderId="1986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1071" fillId="1851" borderId="1986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1072" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1073" fillId="1854" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1074" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1075" fillId="1857" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1067" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1978" fillId="1848" fontId="1068" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1982" fillId="1839" fontId="1069" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1986" fillId="1851" fontId="1070" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1986" fillId="1851" fontId="1071" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1842" fontId="1072" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1854" fontId="1073" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1842" fontId="1074" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1857" fontId="1075" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="1860" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="1863" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="1866" borderId="2002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="1869" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="1872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="1875" borderId="2010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="1866" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="1878" borderId="2018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="1878" borderId="2018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="1881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="1884" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -42920,7 +43578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -43352,7 +44010,7 @@
         <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>592</v>
       </c>
       <c r="AC5" t="s">
         <v>186</v>
@@ -43423,7 +44081,7 @@
         <v>458</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC6" t="s">
         <v>187</v>
@@ -43485,7 +44143,7 @@
         <v>459</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC7" t="s">
         <v>188</v>
@@ -43541,7 +44199,7 @@
         <v>176</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC8" t="s">
         <v>189</v>
@@ -43593,6 +44251,9 @@
       <c r="Z9" t="s">
         <v>210</v>
       </c>
+      <c r="AB9" t="s">
+        <v>183</v>
+      </c>
       <c r="AC9" t="s">
         <v>190</v>
       </c>
@@ -43611,7 +44272,7 @@
         <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>466</v>
+        <v>584</v>
       </c>
       <c r="L10" t="s">
         <v>81</v>
@@ -43634,6 +44295,9 @@
       <c r="Z10" t="s">
         <v>258</v>
       </c>
+      <c r="AB10" t="s">
+        <v>593</v>
+      </c>
       <c r="AC10" t="s">
         <v>191</v>
       </c>
@@ -43652,7 +44316,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>466</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -43690,7 +44354,7 @@
         <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L12" t="s">
         <v>522</v>
@@ -43728,7 +44392,7 @@
         <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L13" t="s">
         <v>398</v>
@@ -43740,7 +44404,7 @@
         <v>95</v>
       </c>
       <c r="S13" t="s">
-        <v>255</v>
+        <v>585</v>
       </c>
       <c r="Z13" t="s">
         <v>327</v>
@@ -43763,7 +44427,7 @@
         <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -43775,7 +44439,7 @@
         <v>96</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z14" t="s">
         <v>104</v>
@@ -43796,6 +44460,9 @@
       </c>
       <c r="H15" t="s">
         <v>265</v>
+      </c>
+      <c r="I15" t="s">
+        <v>326</v>
       </c>
       <c r="L15" t="s">
         <v>42</v>
@@ -43807,10 +44474,10 @@
         <v>517</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z15" t="s">
-        <v>105</v>
+        <v>586</v>
       </c>
       <c r="AC15" t="s">
         <v>195</v>
@@ -43839,10 +44506,10 @@
         <v>518</v>
       </c>
       <c r="S16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z16" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="AC16" t="s">
         <v>196</v>
@@ -43867,8 +44534,11 @@
       <c r="N17" t="s">
         <v>40</v>
       </c>
+      <c r="S17" t="s">
+        <v>253</v>
+      </c>
       <c r="Z17" t="s">
-        <v>519</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s">
         <v>479</v>
@@ -43894,7 +44564,7 @@
         <v>43</v>
       </c>
       <c r="Z18" t="s">
-        <v>106</v>
+        <v>519</v>
       </c>
       <c r="AE18" t="s">
         <v>493</v>
@@ -43914,7 +44584,7 @@
         <v>471</v>
       </c>
       <c r="Z19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE19" t="s">
         <v>511</v>
@@ -43934,7 +44604,7 @@
         <v>84</v>
       </c>
       <c r="Z20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE20" t="s">
         <v>512</v>
@@ -43954,7 +44624,7 @@
         <v>85</v>
       </c>
       <c r="Z21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE21" t="s">
         <v>516</v>
@@ -43974,7 +44644,7 @@
         <v>577</v>
       </c>
       <c r="Z22" t="s">
-        <v>500</v>
+        <v>109</v>
       </c>
       <c r="AE22" t="s">
         <v>236</v>
@@ -43994,7 +44664,7 @@
         <v>488</v>
       </c>
       <c r="Z23" t="s">
-        <v>111</v>
+        <v>500</v>
       </c>
       <c r="AE23" t="s">
         <v>554</v>
@@ -44014,7 +44684,7 @@
         <v>44</v>
       </c>
       <c r="Z24" t="s">
-        <v>563</v>
+        <v>111</v>
       </c>
       <c r="AE24" t="s">
         <v>555</v>
@@ -44034,7 +44704,7 @@
         <v>400</v>
       </c>
       <c r="Z25" t="s">
-        <v>112</v>
+        <v>563</v>
       </c>
       <c r="AE25" t="s">
         <v>556</v>
@@ -44054,7 +44724,7 @@
         <v>541</v>
       </c>
       <c r="Z26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE26" t="s">
         <v>237</v>
@@ -44074,7 +44744,7 @@
         <v>86</v>
       </c>
       <c r="Z27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE27" t="s">
         <v>238</v>
@@ -44094,7 +44764,7 @@
         <v>453</v>
       </c>
       <c r="Z28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -44111,7 +44781,7 @@
         <v>45</v>
       </c>
       <c r="Z29" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -44128,7 +44798,7 @@
         <v>46</v>
       </c>
       <c r="Z30" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31">
@@ -44142,7 +44812,7 @@
         <v>217</v>
       </c>
       <c r="Z31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -44153,7 +44823,7 @@
         <v>276</v>
       </c>
       <c r="Z32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -44164,7 +44834,7 @@
         <v>286</v>
       </c>
       <c r="Z33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -44175,7 +44845,7 @@
         <v>525</v>
       </c>
       <c r="Z34" t="s">
-        <v>564</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -44186,7 +44856,7 @@
         <v>261</v>
       </c>
       <c r="Z35" t="s">
-        <v>120</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36">
@@ -44197,7 +44867,7 @@
         <v>331</v>
       </c>
       <c r="Z36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -44208,7 +44878,7 @@
         <v>308</v>
       </c>
       <c r="Z37" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -44219,7 +44889,7 @@
         <v>262</v>
       </c>
       <c r="Z38" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39">
@@ -44230,7 +44900,7 @@
         <v>309</v>
       </c>
       <c r="Z39" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -44238,7 +44908,7 @@
         <v>268</v>
       </c>
       <c r="Z40" t="s">
-        <v>440</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41">
@@ -44246,7 +44916,7 @@
         <v>79</v>
       </c>
       <c r="Z41" t="s">
-        <v>574</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42">
@@ -44254,7 +44924,7 @@
         <v>213</v>
       </c>
       <c r="Z42" t="s">
-        <v>401</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43">
@@ -44262,7 +44932,7 @@
         <v>560</v>
       </c>
       <c r="Z43" t="s">
-        <v>123</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44">
@@ -44270,7 +44940,7 @@
         <v>290</v>
       </c>
       <c r="Z44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -44278,7 +44948,7 @@
         <v>301</v>
       </c>
       <c r="Z45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -44286,7 +44956,7 @@
         <v>302</v>
       </c>
       <c r="Z46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -44294,7 +44964,7 @@
         <v>344</v>
       </c>
       <c r="Z47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
@@ -44302,7 +44972,7 @@
         <v>343</v>
       </c>
       <c r="Z48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -44310,7 +44980,7 @@
         <v>212</v>
       </c>
       <c r="Z49" t="s">
-        <v>455</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -44318,7 +44988,7 @@
         <v>321</v>
       </c>
       <c r="Z50" t="s">
-        <v>214</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51">
@@ -44326,7 +44996,7 @@
         <v>340</v>
       </c>
       <c r="Z51" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52">
@@ -44334,7 +45004,7 @@
         <v>369</v>
       </c>
       <c r="Z52" t="s">
-        <v>550</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -44342,7 +45012,7 @@
         <v>303</v>
       </c>
       <c r="Z53" t="s">
-        <v>129</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54">
@@ -44350,7 +45020,7 @@
         <v>357</v>
       </c>
       <c r="Z54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
@@ -44358,7 +45028,7 @@
         <v>332</v>
       </c>
       <c r="Z55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -44366,7 +45036,7 @@
         <v>269</v>
       </c>
       <c r="Z56" t="s">
-        <v>501</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -44374,7 +45044,7 @@
         <v>293</v>
       </c>
       <c r="Z57" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58">
@@ -44382,7 +45052,7 @@
         <v>294</v>
       </c>
       <c r="Z58" t="s">
-        <v>132</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59">
@@ -44390,7 +45060,7 @@
         <v>561</v>
       </c>
       <c r="Z59" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
@@ -44398,7 +45068,7 @@
         <v>295</v>
       </c>
       <c r="Z60" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61">
@@ -44406,7 +45076,7 @@
         <v>304</v>
       </c>
       <c r="Z61" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62">
@@ -44414,7 +45084,7 @@
         <v>313</v>
       </c>
       <c r="Z62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -44422,7 +45092,7 @@
         <v>338</v>
       </c>
       <c r="Z63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -44430,7 +45100,7 @@
         <v>310</v>
       </c>
       <c r="Z64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -44438,7 +45108,7 @@
         <v>311</v>
       </c>
       <c r="Z65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
@@ -44446,7 +45116,7 @@
         <v>370</v>
       </c>
       <c r="Z66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67">
@@ -44454,7 +45124,7 @@
         <v>371</v>
       </c>
       <c r="Z67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
@@ -44462,7 +45132,7 @@
         <v>346</v>
       </c>
       <c r="Z68" t="s">
-        <v>451</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
@@ -44470,7 +45140,7 @@
         <v>314</v>
       </c>
       <c r="Z69" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70">
@@ -44478,7 +45148,7 @@
         <v>270</v>
       </c>
       <c r="Z70" t="s">
-        <v>215</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71">
@@ -44486,7 +45156,7 @@
         <v>546</v>
       </c>
       <c r="Z71" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
@@ -44494,7 +45164,7 @@
         <v>315</v>
       </c>
       <c r="Z72" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73">
@@ -44502,7 +45172,7 @@
         <v>421</v>
       </c>
       <c r="Z73" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74">
@@ -44510,7 +45180,7 @@
         <v>305</v>
       </c>
       <c r="Z74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -44518,7 +45188,7 @@
         <v>422</v>
       </c>
       <c r="Z75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76">
@@ -44526,7 +45196,7 @@
         <v>263</v>
       </c>
       <c r="Z76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77">
@@ -44534,7 +45204,7 @@
         <v>526</v>
       </c>
       <c r="Z77" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78">
@@ -44542,7 +45212,7 @@
         <v>345</v>
       </c>
       <c r="Z78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79">
@@ -44550,7 +45220,7 @@
         <v>281</v>
       </c>
       <c r="Z79" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80">
@@ -44558,7 +45228,7 @@
         <v>287</v>
       </c>
       <c r="Z80" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81">
@@ -44566,7 +45236,7 @@
         <v>292</v>
       </c>
       <c r="Z81" t="s">
-        <v>144</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82">
@@ -44574,7 +45244,7 @@
         <v>428</v>
       </c>
       <c r="Z82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -44582,7 +45252,7 @@
         <v>333</v>
       </c>
       <c r="Z83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -44590,7 +45260,7 @@
         <v>271</v>
       </c>
       <c r="Z84" t="s">
-        <v>513</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
@@ -44598,7 +45268,7 @@
         <v>282</v>
       </c>
       <c r="Z85" t="s">
-        <v>147</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86">
@@ -44606,7 +45276,7 @@
         <v>288</v>
       </c>
       <c r="Z86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
@@ -44614,7 +45284,7 @@
         <v>277</v>
       </c>
       <c r="Z87" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88">
@@ -44622,7 +45292,7 @@
         <v>547</v>
       </c>
       <c r="Z88" t="s">
-        <v>502</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -44630,7 +45300,7 @@
         <v>272</v>
       </c>
       <c r="Z89" t="s">
-        <v>583</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90">
@@ -44638,7 +45308,7 @@
         <v>289</v>
       </c>
       <c r="Z90" t="s">
-        <v>201</v>
+        <v>583</v>
       </c>
     </row>
     <row r="91">
@@ -44646,7 +45316,7 @@
         <v>273</v>
       </c>
       <c r="Z91" t="s">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -44654,7 +45324,7 @@
         <v>274</v>
       </c>
       <c r="Z92" t="s">
-        <v>202</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93">
@@ -44662,7 +45332,7 @@
         <v>306</v>
       </c>
       <c r="Z93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
@@ -44670,7 +45340,7 @@
         <v>312</v>
       </c>
       <c r="Z94" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95">
@@ -44678,7 +45348,7 @@
         <v>296</v>
       </c>
       <c r="Z95" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96">
@@ -44686,7 +45356,7 @@
         <v>341</v>
       </c>
       <c r="Z96" t="s">
-        <v>216</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97">
@@ -44694,7 +45364,7 @@
         <v>278</v>
       </c>
       <c r="Z97" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
@@ -44702,206 +45372,236 @@
         <v>279</v>
       </c>
       <c r="Z98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="Z110" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="Z120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="Z123" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Z130" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="139">
+      <c r="Z139" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="140">
+      <c r="Z140" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="136">
-      <c r="Z136" t="s">
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="137">
-      <c r="Z137" t="s">
+    <row r="143">
+      <c r="Z143" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="138">
-      <c r="Z138" t="s">
+    <row r="144">
+      <c r="Z144" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35303" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35880" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1852,13 +1852,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1092" x14ac:knownFonts="1">
+  <fonts count="1108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8743,8 +8749,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1885">
+  <fills count="1912">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19422,8 +19529,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2019">
+  <borders count="2051">
     <border>
       <left/>
       <right/>
@@ -32819,6 +33079,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39850,7 +40436,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1119">
+  <cellXfs count="1135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43178,52 +43764,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1857" fontId="1075" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1076" fillId="1860" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1077" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1994" fillId="1860" fontId="1076" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1077" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1078" fillId="1863" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1998" fillId="1863" fontId="1078" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1079" fillId="1866" borderId="2002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2002" fillId="1866" fontId="1079" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1080" fillId="1869" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2006" fillId="1869" fontId="1080" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1081" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1081" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1082" fillId="1872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1872" fontId="1082" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1083" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1084" fillId="1875" borderId="2010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1085" fillId="1866" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1086" fillId="1878" borderId="2018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1087" fillId="1878" borderId="2018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1088" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1089" fillId="1881" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1090" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1091" fillId="1884" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1083" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2010" fillId="1875" fontId="1084" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2014" fillId="1866" fontId="1085" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2018" fillId="1878" fontId="1086" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2018" fillId="1878" fontId="1087" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1869" fontId="1088" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1881" fontId="1089" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1869" fontId="1090" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1884" fontId="1091" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="1887" borderId="2026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="1890" borderId="2030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="1893" borderId="2034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="1896" borderId="2038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="1899" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="1902" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="1893" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="1905" borderId="2050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="1905" borderId="2050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="1908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="1911" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44272,7 +44906,7 @@
         <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="L10" t="s">
         <v>81</v>
@@ -44316,7 +44950,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>466</v>
+        <v>595</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -44354,7 +44988,7 @@
         <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>466</v>
       </c>
       <c r="L12" t="s">
         <v>522</v>
@@ -44392,7 +45026,7 @@
         <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L13" t="s">
         <v>398</v>
@@ -44427,7 +45061,7 @@
         <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -44462,7 +45096,7 @@
         <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L15" t="s">
         <v>42</v>
@@ -44495,6 +45129,9 @@
       </c>
       <c r="H16" t="s">
         <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>326</v>
       </c>
       <c r="L16" t="s">
         <v>523</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_ExecInterrupt_iter.xlsx
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -42,19 +42,20 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35880" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37050" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1858,13 +1859,37 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1108" x14ac:knownFonts="1">
+  <fonts count="1140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8850,8 +8875,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1912">
+  <fills count="1966">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19682,8 +19909,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2051">
+  <borders count="2115">
     <border>
       <left/>
       <right/>
@@ -33079,6 +33612,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left